--- a/Industrials_result.xlsx
+++ b/Industrials_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.007017232261369521</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.001046741107691318</v>
       </c>
       <c r="D2">
-        <v>0.003968807903039223</v>
+        <v>0.0005757076092302249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001046741107691318</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.007632156082821417</v>
       </c>
       <c r="D3">
-        <v>0.006020792294417923</v>
+        <v>0.00419768584555178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.007632156082821417</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.01001263907551753</v>
       </c>
       <c r="D4">
-        <v>0.009820235669313126</v>
+        <v>0.00550695149153464</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01001263907551753</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.02050438867156767</v>
       </c>
       <c r="D5">
-        <v>0.005513413010480268</v>
+        <v>0.01127741376936222</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02050438867156767</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0006354077284091986</v>
       </c>
       <c r="D6">
-        <v>0.00453078017889201</v>
+        <v>-0.0003494742506250592</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0006354077284091986</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C7">
-        <v>0.1133333333333333</v>
+        <v>-0.002654477299715907</v>
       </c>
       <c r="D7">
-        <v>0.01371228421759657</v>
+        <v>-0.00152757932644371</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.002654477299715907</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1133333333333333</v>
+        <v>0.006012911743963123</v>
       </c>
       <c r="D8">
-        <v>0.006483349119289644</v>
+        <v>0.003307101459179718</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.006012911743963123</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C9">
-        <v>0.2266666666666667</v>
+        <v>0.002946737196105609</v>
       </c>
       <c r="D9">
-        <v>-0.008909648356952127</v>
+        <v>0.001695766929977283</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.002946737196105609</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2266666666666667</v>
+        <v>-0.004415631692102906</v>
       </c>
       <c r="D10">
-        <v>-0.008857859429248863</v>
+        <v>-0.002428597430656598</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.004415631692102906</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2266666666666667</v>
+        <v>-0.01407102241470071</v>
       </c>
       <c r="D11">
-        <v>-0.009963743395069185</v>
+        <v>-0.007739062328085389</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01407102241470071</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C12">
-        <v>0.34</v>
+        <v>-0.0001412440464063636</v>
       </c>
       <c r="D12">
-        <v>-0.007874790380257159</v>
+        <v>-8.128209847441855e-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0001412440464063636</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C13">
-        <v>0.4533333333333333</v>
+        <v>0.008797412844233854</v>
       </c>
       <c r="D13">
-        <v>-0.02381758461804548</v>
+        <v>0.005062671279381543</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.008797412844233854</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C14">
-        <v>0.5666666666666667</v>
+        <v>0.01275320459356966</v>
       </c>
       <c r="D14">
-        <v>-0.01794294672394878</v>
+        <v>0.007339121598489073</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01275320459356966</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C15">
-        <v>0.6799999999999999</v>
+        <v>-0.005174416719614605</v>
       </c>
       <c r="D15">
-        <v>-0.01726775490393357</v>
+        <v>-0.00297773577047877</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.005174416719614605</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C16">
-        <v>0.7933333333333332</v>
+        <v>0.005865390328883002</v>
       </c>
       <c r="D16">
-        <v>-0.01250353884730074</v>
+        <v>0.003375372247064787</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.005865390328883002</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C17">
-        <v>0.9066666666666665</v>
+        <v>0.001457156043123575</v>
       </c>
       <c r="D17">
-        <v>-0.01862774898538746</v>
+        <v>0.000838553581571905</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001457156043123575</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C18">
-        <v>1.02</v>
+        <v>0.01108133248034182</v>
       </c>
       <c r="D18">
-        <v>-0.02072777837549351</v>
+        <v>0.006377004771610226</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01108133248034182</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C19">
-        <v>1.133333333333333</v>
+        <v>-0.003188342486855511</v>
       </c>
       <c r="D19">
-        <v>-0.01181905996324335</v>
+        <v>-0.001834804188780918</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.003188342486855511</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C20">
-        <v>1.246666666666666</v>
+        <v>0.008841576400978823</v>
       </c>
       <c r="D20">
-        <v>-0.01634767386852702</v>
+        <v>0.005088086202414812</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.008841576400978823</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C21">
-        <v>1.36</v>
+        <v>-0.003109858939669863</v>
       </c>
       <c r="D21">
-        <v>-0.02522326967076334</v>
+        <v>-0.001789639046792475</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.003109858939669863</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>2.359999999999999</v>
+        <v>-0.0200675630508087</v>
       </c>
       <c r="D22">
-        <v>-0.02488093530707937</v>
+        <v>-0.01521026401352386</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.0200675630508087</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C23">
-        <v>2.473333333333333</v>
+        <v>0.007178296204031653</v>
       </c>
       <c r="D23">
-        <v>-0.03210262846219332</v>
+        <v>0.004130913789144732</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.007178296204031653</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>3.473333333333333</v>
+        <v>0.002707272281181616</v>
       </c>
       <c r="D24">
-        <v>-0.03549749323140081</v>
+        <v>0.0020519843913787</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.002707272281181616</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>4.473333333333333</v>
+        <v>0.00501277094308783</v>
       </c>
       <c r="D25">
-        <v>-0.0325651314119351</v>
+        <v>0.003799443374895203</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.00501277094308783</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C26">
-        <v>4.782424242424241</v>
+        <v>-0.007536267552588072</v>
       </c>
       <c r="D26">
-        <v>-0.043736394103457</v>
+        <v>-0.004664927097980496</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.007536267552588072</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C27">
-        <v>5.747614115841963</v>
+        <v>-0.001317805890986179</v>
       </c>
       <c r="D27">
-        <v>-0.03837902117913097</v>
+        <v>-0.000990652315978766</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.001317805890986179</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C28">
-        <v>6.712803989259685</v>
+        <v>0.01231328704004486</v>
       </c>
       <c r="D28">
-        <v>-0.02545094723989049</v>
+        <v>0.009256436328724608</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01231328704004486</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C29">
-        <v>7.677993862677407</v>
+        <v>-0.0096947027942349</v>
       </c>
       <c r="D29">
-        <v>-0.0195589494616709</v>
+        <v>-0.007287932040315447</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.0096947027942349</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C30">
-        <v>8.643183736095128</v>
+        <v>-0.02064350192873121</v>
       </c>
       <c r="D30">
-        <v>-0.01951162110571801</v>
+        <v>-0.01551862314130768</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.02064350192873121</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C31">
-        <v>8.756517069428462</v>
+        <v>9.36695028395107e-05</v>
       </c>
       <c r="D31">
-        <v>-0.01312625084313833</v>
+        <v>5.390424550671832e-05</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.36695028395107e-05</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C32">
-        <v>8.869850402761795</v>
+        <v>-0.002000188184434037</v>
       </c>
       <c r="D32">
-        <v>-0.01218837480253095</v>
+        <v>-0.00115105377614848</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.002000188184434037</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C33">
-        <v>8.983183736095128</v>
+        <v>0.003778243710193863</v>
       </c>
       <c r="D33">
-        <v>-0.01890844774102515</v>
+        <v>0.00217427626244</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.003778243710193863</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C34">
-        <v>9.096517069428462</v>
+        <v>-0.02883538386202478</v>
       </c>
       <c r="D34">
-        <v>-0.01740854468338124</v>
+        <v>-0.01659397737641677</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02883538386202478</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C35">
-        <v>9.209850402761795</v>
+        <v>0.01062532929924931</v>
       </c>
       <c r="D35">
-        <v>-0.01341957918998974</v>
+        <v>0.00611458737127908</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01062532929924931</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C36">
-        <v>9.323183736095128</v>
+        <v>0.001221204703532486</v>
       </c>
       <c r="D36">
-        <v>-0.01633566341507817</v>
+        <v>0.0007027700175366719</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.001221204703532486</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C37">
-        <v>9.436517069428461</v>
+        <v>0.008616933565448015</v>
       </c>
       <c r="D37">
-        <v>-0.01875477567235849</v>
+        <v>0.004958810374202876</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.008616933565448015</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C38">
-        <v>9.549850402761795</v>
+        <v>-0.01107672516809277</v>
       </c>
       <c r="D38">
-        <v>-0.004762332517200632</v>
+        <v>-0.006374353389003612</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.01107672516809277</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C39">
-        <v>10.51504027617952</v>
+        <v>-0.002816343004795385</v>
       </c>
       <c r="D39">
-        <v>-0.004901545259314893</v>
+        <v>-0.002117168195539966</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.002816343004795385</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>11.51504027617952</v>
+        <v>0.01175365978399689</v>
       </c>
       <c r="D40">
-        <v>0.007045263070403719</v>
+        <v>0.008908718412250168</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01175365978399689</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C41">
-        <v>11.62837360951285</v>
+        <v>-0.008190805098157838</v>
       </c>
       <c r="D41">
-        <v>0.003558307240412788</v>
+        <v>-0.004713585057297252</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.008190805098157838</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C42">
-        <v>11.74170694284618</v>
+        <v>-0.01605309634838292</v>
       </c>
       <c r="D42">
-        <v>0.00198176430790899</v>
+        <v>-0.009238119350210022</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01605309634838292</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>12.74170694284618</v>
+        <v>0.0004516566196075544</v>
       </c>
       <c r="D43">
-        <v>-0.003024197513140341</v>
+        <v>0.0003423343636839738</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0004516566196075544</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>13.74170694284618</v>
+        <v>-0.009527893966533973</v>
       </c>
       <c r="D44">
-        <v>-0.001647594096306043</v>
+        <v>-0.007221693155113951</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.009527893966533973</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C45">
-        <v>14.7068968162639</v>
+        <v>-0.004552842779262711</v>
       </c>
       <c r="D45">
-        <v>-0.0009425126521414116</v>
+        <v>-0.003422571013238178</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.004552842779262711</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>15.7068968162639</v>
+        <v>0.00386879252375838</v>
       </c>
       <c r="D46">
-        <v>0.00627785645676775</v>
+        <v>0.002932361819465709</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.00386879252375838</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>16.7068968162639</v>
+        <v>-0.01473873288589456</v>
       </c>
       <c r="D47">
-        <v>0.008060662441209185</v>
+        <v>-0.0111712626915219</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01473873288589456</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>17.7068968162639</v>
+        <v>0.007068215176937009</v>
       </c>
       <c r="D48">
-        <v>0.007066931029424839</v>
+        <v>0.005357372924326039</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.007068215176937009</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C49">
-        <v>17.82023014959724</v>
+        <v>0.02338272507783135</v>
       </c>
       <c r="D49">
-        <v>0.01063342866595855</v>
+        <v>0.01345612088249346</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.02338272507783135</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C50">
-        <v>17.93356348293057</v>
+        <v>0.01065672774264748</v>
       </c>
       <c r="D50">
-        <v>0.007077386615643817</v>
+        <v>0.006132656319551</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01065672774264748</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C51">
-        <v>18.89875335634829</v>
+        <v>6.347191370004168e-05</v>
       </c>
       <c r="D51">
-        <v>0.002040190143850039</v>
+        <v>4.771461315861589e-05</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6.347191370004168e-05</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C52">
-        <v>19.86394322976601</v>
+        <v>0.008563400567997093</v>
       </c>
       <c r="D52">
-        <v>0.0004610522777594214</v>
+        <v>0.006437482684943601</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.008563400567997093</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C53">
-        <v>20.82913310318373</v>
+        <v>0.001257782695220477</v>
       </c>
       <c r="D53">
-        <v>-0.001699825317714483</v>
+        <v>0.0009455302549040195</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.001257782695220477</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C54">
-        <v>21.79432297660145</v>
+        <v>-0.009012269304996323</v>
       </c>
       <c r="D54">
-        <v>0.003570029200120174</v>
+        <v>-0.006774916943600603</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.009012269304996323</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C55">
-        <v>22.75951285001917</v>
+        <v>0.002011515412197795</v>
       </c>
       <c r="D55">
-        <v>0.0136349143437551</v>
+        <v>0.001512144099029246</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.002011515412197795</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C56">
-        <v>23.7247027234369</v>
+        <v>0.005349589446991487</v>
       </c>
       <c r="D56">
-        <v>0.0112851594292853</v>
+        <v>0.00402152032514572</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005349589446991487</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C57">
-        <v>24.68989259685462</v>
+        <v>-0.003910751653007694</v>
       </c>
       <c r="D57">
-        <v>0.01499180453825547</v>
+        <v>-0.002939883034951839</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.003910751653007694</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C58">
-        <v>25.65508247027234</v>
+        <v>-0.003244264063972047</v>
       </c>
       <c r="D58">
-        <v>-0.001665132217506471</v>
+        <v>-0.002438855168734634</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.003244264063972047</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C59">
-        <v>26.62027234369006</v>
+        <v>0.01876522280387505</v>
       </c>
       <c r="D59">
-        <v>0.0002051158717845296</v>
+        <v>0.01410663858590335</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01876522280387505</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C60">
-        <v>27.58546221710778</v>
+        <v>-0.0001866977835067729</v>
       </c>
       <c r="D60">
-        <v>0.003687819967079336</v>
+        <v>-0.0001403488881664338</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.0001866977835067729</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C61">
-        <v>28.5506520905255</v>
+        <v>0.01602182818371656</v>
       </c>
       <c r="D61">
-        <v>0.004499094392469028</v>
+        <v>0.01204430888113183</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01602182818371656</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C62">
-        <v>29.32842986830328</v>
+        <v>-0.005112038212611303</v>
       </c>
       <c r="D62">
-        <v>0.01366997676032972</v>
+        <v>-0.003663700039689642</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.005112038212611303</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C63">
-        <v>30.10620764608106</v>
+        <v>-0.00231128471587283</v>
       </c>
       <c r="D63">
-        <v>0.01667582751425208</v>
+        <v>-0.001656453561788195</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.00231128471587283</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C64">
-        <v>30.88398542385884</v>
+        <v>-0.007338971116288562</v>
       </c>
       <c r="D64">
-        <v>0.01512375470250849</v>
+        <v>-0.005259700270568374</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.007338971116288562</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C65">
-        <v>31.66176320163661</v>
+        <v>0.002018164156236679</v>
       </c>
       <c r="D65">
-        <v>0.0138729997302739</v>
+        <v>0.001446379661455543</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.002018164156236679</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C66">
-        <v>32.62695307505434</v>
+        <v>0.0009455825725295242</v>
       </c>
       <c r="D66">
-        <v>0.0125523612580322</v>
+        <v>0.0007108357701486077</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0009455825725295242</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C67">
-        <v>33.59214294847206</v>
+        <v>0.009683214972000975</v>
       </c>
       <c r="D67">
-        <v>0.01545220432512957</v>
+        <v>0.007279296141979104</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.009683214972000975</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C68">
-        <v>34.55733282188978</v>
+        <v>0.002390915663773363</v>
       </c>
       <c r="D68">
-        <v>0.007424772159574744</v>
+        <v>0.001797355859332573</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.002390915663773363</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C69">
-        <v>35.5225226953075</v>
+        <v>-0.001332690163009076</v>
       </c>
       <c r="D69">
-        <v>-0.007756509948447406</v>
+        <v>-0.001001841474148416</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.001332690163009076</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C70">
-        <v>36.30030047308528</v>
+        <v>0.00522865017283447</v>
       </c>
       <c r="D70">
-        <v>-0.0126112776276597</v>
+        <v>0.003747273601844152</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.00522865017283447</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C71">
-        <v>37.07807825086306</v>
+        <v>-0.00521332180078371</v>
       </c>
       <c r="D71">
-        <v>-0.03387392173390192</v>
+        <v>-0.003736288050689193</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.00521332180078371</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C72">
-        <v>37.85585602864084</v>
+        <v>-0.007384762556142732</v>
       </c>
       <c r="D72">
-        <v>-0.02261444115264049</v>
+        <v>-0.005292518119933681</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.007384762556142732</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C73">
-        <v>38.82104590205856</v>
+        <v>-0.002117776971943819</v>
       </c>
       <c r="D73">
-        <v>-0.02346908281502381</v>
+        <v>-0.001592025560314213</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.002117776971943819</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C74">
-        <v>39.78623577547628</v>
+        <v>-0.002897946347276914</v>
       </c>
       <c r="D74">
-        <v>-0.01095092051076529</v>
+        <v>-0.002178512996602008</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.002897946347276914</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C75">
-        <v>40.751425648894</v>
+        <v>0.007067385807797422</v>
       </c>
       <c r="D75">
-        <v>-0.01730361340327967</v>
+        <v>0.005312862968893351</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.007067385807797422</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C76">
-        <v>41.06051655798491</v>
+        <v>0.01761197832767447</v>
       </c>
       <c r="D76">
-        <v>-0.02770835840435359</v>
+        <v>0.01090176196326779</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.01761197832767447</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C77">
-        <v>41.36960746707582</v>
+        <v>-0.004111704409777595</v>
       </c>
       <c r="D77">
-        <v>-0.01906177506506541</v>
+        <v>-0.002545132744586598</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.004111704409777595</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C78">
-        <v>41.67869837616674</v>
+        <v>0.006486050500918772</v>
       </c>
       <c r="D78">
-        <v>-0.04209940816654539</v>
+        <v>0.004014845880865156</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.006486050500918772</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>42.67869837616674</v>
+        <v>-0.02197622133858967</v>
       </c>
       <c r="D79">
-        <v>-0.04386661622378127</v>
+        <v>-0.01665693675576194</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.02197622133858967</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>43.67869837616674</v>
+        <v>0.00246749967121751</v>
       </c>
       <c r="D80">
-        <v>-0.02963654488940936</v>
+        <v>0.001870248089291001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.00246749967121751</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>44.67869837616674</v>
+        <v>0.004594883031451502</v>
       </c>
       <c r="D81">
-        <v>-0.02206124363569474</v>
+        <v>0.003482704095294807</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004594883031451502</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C82">
-        <v>45.64388824958446</v>
+        <v>0.001087997655499606</v>
       </c>
       <c r="D82">
-        <v>-0.02735720489818425</v>
+        <v>0.0008178954158366687</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001087997655499606</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C83">
-        <v>46.60907812300218</v>
+        <v>0.01229904234969847</v>
       </c>
       <c r="D83">
-        <v>-0.02228968932139316</v>
+        <v>0.009245727972070133</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01229904234969847</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C84">
-        <v>47.5742679964199</v>
+        <v>0.004031137270817275</v>
       </c>
       <c r="D84">
-        <v>-0.02123220366570318</v>
+        <v>0.003030382168329022</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.004031137270817275</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C85">
-        <v>48.53945786983762</v>
+        <v>-0.002081480110174283</v>
       </c>
       <c r="D85">
-        <v>-0.04200066497714457</v>
+        <v>-0.001564739622058282</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.002081480110174283</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C86">
-        <v>49.50464774325534</v>
+        <v>-0.00167738367537229</v>
       </c>
       <c r="D86">
-        <v>-0.0364179642371892</v>
+        <v>-0.001260962660858193</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.00167738367537229</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C87">
-        <v>50.46983761667306</v>
+        <v>-0.001771104223914577</v>
       </c>
       <c r="D87">
-        <v>-0.03882723073250248</v>
+        <v>-0.001331416495602198</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.001771104223914577</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>51.46983761667306</v>
+        <v>0.003825889118997949</v>
       </c>
       <c r="D88">
-        <v>-0.0330145668487514</v>
+        <v>0.002899843067097373</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003825889118997949</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>52.46983761667306</v>
+        <v>-0.0105909404974911</v>
       </c>
       <c r="D89">
-        <v>-0.01973756261507718</v>
+        <v>-0.008027432165554828</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0105909404974911</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>53.46983761667306</v>
+        <v>-0.02002932596199347</v>
       </c>
       <c r="D90">
-        <v>-0.01644242226263747</v>
+        <v>-0.01518128210802215</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02002932596199347</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C91">
-        <v>54.43502749009078</v>
+        <v>-0.006510714115560923</v>
       </c>
       <c r="D91">
-        <v>-0.02726484591579117</v>
+        <v>-0.004894388514555302</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.006510714115560923</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>55.43502749009078</v>
+        <v>-0.0280527314219885</v>
       </c>
       <c r="D92">
-        <v>-0.01744377544128604</v>
+        <v>-0.02126264410624222</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0280527314219885</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>56.43502749009078</v>
+        <v>0.01485512258583555</v>
       </c>
       <c r="D93">
-        <v>-0.007765948662134927</v>
+        <v>0.01125948058126143</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01485512258583555</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>57.43502749009078</v>
+        <v>-0.001127565927223628</v>
       </c>
       <c r="D94">
-        <v>-0.006524458955515544</v>
+        <v>-0.000854641662383319</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.001127565927223628</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>58.43502749009078</v>
+        <v>0.01651575614319434</v>
       </c>
       <c r="D95">
-        <v>-0.004758425376318388</v>
+        <v>0.01251816230425852</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01651575614319434</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>59.43502749009078</v>
+        <v>-0.008381384113359758</v>
       </c>
       <c r="D96">
-        <v>0.002655437456727121</v>
+        <v>-0.006352692892514375</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.008381384113359758</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>60.43502749009078</v>
+        <v>-0.01372743274876687</v>
       </c>
       <c r="D97">
-        <v>0.009899935580397333</v>
+        <v>-0.01040474500107392</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01372743274876687</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>61.43502749009078</v>
+        <v>0.01140781357778931</v>
       </c>
       <c r="D98">
-        <v>0.01047194086063666</v>
+        <v>0.008646583339288179</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01140781357778931</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>62.43502749009078</v>
+        <v>-0.03039455162607929</v>
       </c>
       <c r="D99">
-        <v>0.0143729251000107</v>
+        <v>-0.02303763310147998</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.03039455162607929</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>63.43502749009078</v>
+        <v>-0.00233155447406741</v>
       </c>
       <c r="D100">
-        <v>0.0132343619669766</v>
+        <v>-0.001767208057235875</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.00233155447406741</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>64.43502749009079</v>
+        <v>0.0187743522049395</v>
       </c>
       <c r="D101">
-        <v>0.012926656463962</v>
+        <v>0.01423007133437191</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0187743522049395</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>65.43502749009079</v>
+        <v>0.009994424515092248</v>
       </c>
       <c r="D102">
-        <v>0.01186582476166944</v>
+        <v>0.007575301253714618</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.009994424515092248</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>66.43502749009079</v>
+        <v>-0.006987192099700223</v>
       </c>
       <c r="D103">
-        <v>0.008101028043499754</v>
+        <v>-0.005295961262489502</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.006987192099700223</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>67.43502749009079</v>
+        <v>0.006685793767799986</v>
       </c>
       <c r="D104">
-        <v>0.003117469943803822</v>
+        <v>0.005067515576791081</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.006685793767799986</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>68.43502749009079</v>
+        <v>0.001395186832524153</v>
       </c>
       <c r="D105">
-        <v>0.00178836668719193</v>
+        <v>0.001057485655689981</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.001395186832524153</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>69.43502749009079</v>
+        <v>-0.02740073456089043</v>
       </c>
       <c r="D106">
-        <v>-0.003074003523835932</v>
+        <v>-0.02076846131144139</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02740073456089043</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>70.43502749009079</v>
+        <v>0.007365499967209033</v>
       </c>
       <c r="D107">
-        <v>0.002221416851770181</v>
+        <v>0.005582700739955368</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.007365499967209033</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C108">
-        <v>70.54836082342412</v>
+        <v>-0.004357587709035826</v>
       </c>
       <c r="D108">
-        <v>0.002676567463706604</v>
+        <v>-0.002507672941185351</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.004357587709035826</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C109">
-        <v>70.66169415675745</v>
+        <v>0.01051323825980344</v>
       </c>
       <c r="D109">
-        <v>-0.0004483947353956575</v>
+        <v>0.006050082033616021</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.01051323825980344</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>71.66169415675745</v>
+        <v>0.01751692931485049</v>
       </c>
       <c r="D110">
-        <v>0.001127270680103156</v>
+        <v>0.01327700423367423</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01751692931485049</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>72.66169415675745</v>
+        <v>0.004347422025354319</v>
       </c>
       <c r="D111">
-        <v>-0.01228024901486293</v>
+        <v>0.003295140352439707</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.004347422025354319</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>73.66169415675745</v>
+        <v>-0.01427849436598372</v>
       </c>
       <c r="D112">
-        <v>-0.02327009702356639</v>
+        <v>-0.0108224236531537</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.01427849436598372</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>74.66169415675745</v>
+        <v>0.01295736555251992</v>
       </c>
       <c r="D113">
-        <v>-0.01940138141180181</v>
+        <v>0.009821070474505131</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01295736555251992</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C114">
-        <v>74.77502749009078</v>
+        <v>0.01750407400137899</v>
       </c>
       <c r="D114">
-        <v>-0.01337985591626113</v>
+        <v>0.01007311743668295</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01750407400137899</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>75.77502749009078</v>
+        <v>0.001637951382195801</v>
       </c>
       <c r="D115">
-        <v>-0.01637806409961115</v>
+        <v>0.001241489706619383</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.001637951382195801</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="C116">
-        <v>76.37204241546391</v>
+        <v>0.00280608889166345</v>
       </c>
       <c r="D116">
-        <v>-0.02513496945437687</v>
+        <v>0.001909475483729609</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.00280608889166345</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C117">
-        <v>77.33723228888164</v>
+        <v>0.009942708814806522</v>
       </c>
       <c r="D117">
-        <v>-0.0204450253790892</v>
+        <v>0.007474369011296124</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.009942708814806522</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>78.33723228888164</v>
+        <v>0.009557981553703243</v>
       </c>
       <c r="D118">
-        <v>-0.01570748795886666</v>
+        <v>0.007244498123670213</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.009557981553703243</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>79.33723228888164</v>
+        <v>0.0007546714518822384</v>
       </c>
       <c r="D119">
-        <v>-0.00492522966036945</v>
+        <v>0.0005720052802393281</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0007546714518822384</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>80.33723228888164</v>
+        <v>0.00514673822323175</v>
       </c>
       <c r="D120">
-        <v>-0.006232692675419937</v>
+        <v>0.003900984239374043</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.00514673822323175</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>81.33723228888164</v>
+        <v>-0.001502155875741096</v>
       </c>
       <c r="D121">
-        <v>-0.001295007045064718</v>
+        <v>-0.001138563133034106</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.001502155875741096</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>82.33723228888164</v>
+        <v>-0.0004059692571631857</v>
       </c>
       <c r="D122">
-        <v>-0.001532743448609278</v>
+        <v>-0.0003077055030145963</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.0004059692571631857</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>83.33723228888164</v>
+        <v>-0.001399601417380048</v>
       </c>
       <c r="D123">
-        <v>0.001845276799260041</v>
+        <v>-0.001060831702292563</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.001399601417380048</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>84.33723228888164</v>
+        <v>-0.004967060101532361</v>
       </c>
       <c r="D124">
-        <v>-0.004439309975190609</v>
+        <v>-0.003764796718169686</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.004967060101532361</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>85.33723228888164</v>
+        <v>-0.006575025015614244</v>
       </c>
       <c r="D125">
-        <v>-7.835685475755718e-05</v>
+        <v>-0.004983558099695932</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.006575025015614244</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>86.33723228888164</v>
+        <v>-0.001753543750416142</v>
       </c>
       <c r="D126">
-        <v>0.005688071662189501</v>
+        <v>-0.001329103256611892</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.001753543750416142</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>87.33723228888164</v>
+        <v>-0.006415136561694013</v>
       </c>
       <c r="D127">
-        <v>0.005480582776646785</v>
+        <v>-0.004862370211027862</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.006415136561694013</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C128">
-        <v>88.30242216229937</v>
+        <v>0.007101672101615719</v>
       </c>
       <c r="D128">
-        <v>0.006364723921151111</v>
+        <v>0.005338637475298089</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.007101672101615719</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C129">
-        <v>88.41575549563269</v>
+        <v>0.000823220974596417</v>
       </c>
       <c r="D129">
-        <v>0.01092094372232947</v>
+        <v>0.0004737412303442625</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.000823220974596417</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>89.41575549563269</v>
+        <v>-0.004122898583885259</v>
       </c>
       <c r="D130">
-        <v>0.01275050439064378</v>
+        <v>-0.003124962199102262</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.004122898583885259</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>90.41575549563269</v>
+        <v>0.002078843933569274</v>
       </c>
       <c r="D131">
-        <v>0.01554537193052023</v>
+        <v>0.001575665415498813</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.002078843933569274</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C132">
-        <v>90.52908882896602</v>
+        <v>-0.02424988814856821</v>
       </c>
       <c r="D132">
-        <v>0.01793234465891153</v>
+        <v>-0.01395514959132998</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.02424988814856821</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C133">
-        <v>90.64242216229935</v>
+        <v>-0.01987709815417116</v>
       </c>
       <c r="D133">
-        <v>0.009271626674120693</v>
+        <v>-0.0114387281493249</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01987709815417116</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C134">
-        <v>90.75575549563268</v>
+        <v>0.006997261462098336</v>
       </c>
       <c r="D134">
-        <v>0.02582270790857559</v>
+        <v>0.004026733230066301</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.006997261462098336</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C135">
-        <v>90.86908882896601</v>
+        <v>0.01089100169701318</v>
       </c>
       <c r="D135">
-        <v>0.03487379576128417</v>
+        <v>0.006267474594113592</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01089100169701318</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C136">
-        <v>90.98242216229934</v>
+        <v>-0.005422793681940874</v>
       </c>
       <c r="D136">
-        <v>0.03637923007717185</v>
+        <v>-0.003120669941682684</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.005422793681940874</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C137">
-        <v>91.09575549563267</v>
+        <v>-0.01583842352738785</v>
       </c>
       <c r="D137">
-        <v>0.03665431048327461</v>
+        <v>-0.009114580993586469</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01583842352738785</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C138">
-        <v>91.209088828966</v>
+        <v>0.008482599454354478</v>
       </c>
       <c r="D138">
-        <v>0.03794458622653055</v>
+        <v>0.004881504755140079</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.008482599454354478</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C139">
-        <v>91.32242216229933</v>
+        <v>0.008568680498242109</v>
       </c>
       <c r="D139">
-        <v>0.03918974220720516</v>
+        <v>0.004931042049377069</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.008568680498242109</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C140">
-        <v>91.43575549563266</v>
+        <v>0.01950163517758607</v>
       </c>
       <c r="D140">
-        <v>0.03960465759320155</v>
+        <v>0.01122265944120757</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01950163517758607</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C141">
-        <v>91.54908882896599</v>
+        <v>-0.002364779809741258</v>
       </c>
       <c r="D141">
-        <v>0.03942213193554462</v>
+        <v>-0.001360866317952257</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.002364779809741258</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="C142">
-        <v>92.14610375433912</v>
+        <v>0.0078455953279013</v>
       </c>
       <c r="D142">
-        <v>0.03638954507679341</v>
+        <v>0.005338737478487495</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0078455953279013</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C143">
-        <v>92.25943708767245</v>
+        <v>-0.0004299886426393229</v>
       </c>
       <c r="D143">
-        <v>0.03825464418853038</v>
+        <v>-0.0002474467425928713</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.0004299886426393229</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C144">
-        <v>93.1453431279409</v>
+        <v>0.004704448779158987</v>
       </c>
       <c r="D144">
-        <v>0.04343950040966554</v>
+        <v>0.003468308481020495</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.004704448779158987</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C145">
-        <v>94.03124916820936</v>
+        <v>-0.00875232071128984</v>
       </c>
       <c r="D145">
-        <v>0.04092839558966169</v>
+        <v>-0.006452562154796075</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.00875232071128984</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C146">
-        <v>94.91715520847781</v>
+        <v>0.006073344467467656</v>
       </c>
       <c r="D146">
-        <v>0.04001619915206631</v>
+        <v>0.004477513331209574</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.006073344467467656</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C147">
-        <v>95.80306124874626</v>
+        <v>0.008030700116072431</v>
       </c>
       <c r="D147">
-        <v>0.0343425929426926</v>
+        <v>0.005920554485468443</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.008030700116072431</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C148">
-        <v>96.68896728901471</v>
+        <v>-0.0002889623988773238</v>
       </c>
       <c r="D148">
-        <v>0.03314505489378005</v>
+        <v>-0.0002130346796764177</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.0002889623988773238</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C149">
-        <v>97.57487332928316</v>
+        <v>0.00123131195868087</v>
       </c>
       <c r="D149">
-        <v>0.03725093037537588</v>
+        <v>0.0009077726019664019</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.00123131195868087</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C150">
-        <v>98.46077936955162</v>
+        <v>0.006345285435974901</v>
       </c>
       <c r="D150">
-        <v>0.04266183770642912</v>
+        <v>0.004677999129160852</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.006345285435974901</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C151">
-        <v>99.34668540982007</v>
+        <v>0.002547964139018255</v>
       </c>
       <c r="D151">
-        <v>0.0449050314288901</v>
+        <v>0.001878461440975218</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.002547964139018255</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C152">
-        <v>100.2325914500885</v>
+        <v>0.003892312721978541</v>
       </c>
       <c r="D152">
-        <v>0.04352707438096657</v>
+        <v>0.002869569179757439</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.003892312721978541</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C153">
-        <v>101.118497490357</v>
+        <v>0.003324252110403769</v>
       </c>
       <c r="D153">
-        <v>0.03944414273024299</v>
+        <v>0.002450772094414173</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.003324252110403769</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>102.118497490357</v>
+        <v>-0.01142646203054287</v>
       </c>
       <c r="D154">
-        <v>0.02715118884584513</v>
+        <v>-0.008660717984790839</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.01142646203054287</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>103.118497490357</v>
+        <v>0.02183656154397884</v>
       </c>
       <c r="D155">
-        <v>0.01877208276035969</v>
+        <v>0.0165510812344549</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.02183656154397884</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>104.118497490357</v>
+        <v>0.01194149398071875</v>
       </c>
       <c r="D156">
-        <v>0.02124482970200795</v>
+        <v>0.009051087852708585</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.01194149398071875</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>105.118497490357</v>
+        <v>0.001986184988377993</v>
       </c>
       <c r="D157">
-        <v>0.02165053772209695</v>
+        <v>0.00150543431588768</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001986184988377993</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C158">
-        <v>105.4275883994479</v>
+        <v>0.0004813477830607482</v>
       </c>
       <c r="D158">
-        <v>0.03112269080265444</v>
+        <v>0.0002979528395301993</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0004813477830607482</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C159">
-        <v>105.7366793085388</v>
+        <v>0.002257781196968622</v>
       </c>
       <c r="D159">
-        <v>0.02850338906165698</v>
+        <v>0.001397559815061606</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.002257781196968622</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>106.7366793085388</v>
+        <v>0.001642788457061783</v>
       </c>
       <c r="D160">
-        <v>0.02718474365120634</v>
+        <v>0.001245155980674608</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001642788457061783</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C161">
-        <v>107.0457702176297</v>
+        <v>0.0007260371759540973</v>
       </c>
       <c r="D161">
-        <v>0.03229009776900454</v>
+        <v>0.0004494148426413529</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0007260371759540973</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C162">
-        <v>107.3548611267206</v>
+        <v>-0.000319391416893744</v>
       </c>
       <c r="D162">
-        <v>0.03878354068316697</v>
+        <v>-0.0001977023327705959</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.000319391416893744</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>108.3548611267206</v>
+        <v>-0.004001023778478441</v>
       </c>
       <c r="D163">
-        <v>0.03668782770540069</v>
+        <v>-0.003032586858751215</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.004001023778478441</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>109.3548611267206</v>
+        <v>0.002460706401119062</v>
       </c>
       <c r="D164">
-        <v>0.03650458376746236</v>
+        <v>0.001865099111736976</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.002460706401119062</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>110.3548611267206</v>
+        <v>0.006840606384905357</v>
       </c>
       <c r="D165">
-        <v>0.03594088165456551</v>
+        <v>0.005184856221135157</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.006840606384905357</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>111.3548611267206</v>
+        <v>-0.003313009837160763</v>
       </c>
       <c r="D166">
-        <v>0.03309093723483125</v>
+        <v>-0.002511104820003851</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.003313009837160763</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>112.3548611267206</v>
+        <v>-0.001203500446139039</v>
       </c>
       <c r="D167">
-        <v>0.03472241031607676</v>
+        <v>-0.0009121964375953879</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.001203500446139039</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>113.3548611267206</v>
+        <v>-0.007485435507946114</v>
       </c>
       <c r="D168">
-        <v>0.03790089779770373</v>
+        <v>-0.005673606209373701</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.007485435507946114</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>114.3548611267206</v>
+        <v>-0.001579964048022298</v>
       </c>
       <c r="D169">
-        <v>0.04150285413669502</v>
+        <v>-0.00119753804891255</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.001579964048022298</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>115.3548611267206</v>
+        <v>0.005417060153093622</v>
       </c>
       <c r="D170">
-        <v>0.03955978960725134</v>
+        <v>0.004105875481595836</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.005417060153093622</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>116.3548611267206</v>
+        <v>0.007138845448800168</v>
       </c>
       <c r="D171">
-        <v>0.04088344464135516</v>
+        <v>0.005410907331053234</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.007138845448800168</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>117.3548611267206</v>
+        <v>0.002959543070431891</v>
       </c>
       <c r="D172">
-        <v>0.04067682552872139</v>
+        <v>0.002243193722460986</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.002959543070431891</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>118.3548611267206</v>
+        <v>-0.001817998682726696</v>
       </c>
       <c r="D173">
-        <v>0.03741060348853831</v>
+        <v>-0.001377957047923529</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.001817998682726696</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>119.3548611267206</v>
+        <v>-0.005386789358829525</v>
       </c>
       <c r="D174">
-        <v>0.03757685208102531</v>
+        <v>-0.004082931650723585</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.005386789358829525</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>120.3548611267206</v>
+        <v>-0.01621862887695436</v>
       </c>
       <c r="D175">
-        <v>0.04745750446665183</v>
+        <v>-0.01229295388439786</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.01621862887695436</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>121.3548611267206</v>
+        <v>-0.01105491919998158</v>
       </c>
       <c r="D176">
-        <v>0.04678771247303941</v>
+        <v>-0.008379106085485437</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.01105491919998158</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>122.3548611267206</v>
+        <v>0.003262402619448324</v>
       </c>
       <c r="D177">
-        <v>0.04663240468288374</v>
+        <v>0.002472746941648259</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.003262402619448324</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>123.3548611267206</v>
+        <v>0.0005352682416370769</v>
       </c>
       <c r="D178">
-        <v>0.0459289042174759</v>
+        <v>0.0004057080200889928</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0005352682416370769</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>124.3548611267206</v>
+        <v>0.01249702365468419</v>
       </c>
       <c r="D179">
-        <v>0.04723704987469807</v>
+        <v>0.009472153080557495</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.01249702365468419</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>125.3548611267206</v>
+        <v>-0.00345575874224302</v>
       </c>
       <c r="D180">
-        <v>0.04984439208104199</v>
+        <v>-0.002619301740997458</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.00345575874224302</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>126.3548611267206</v>
+        <v>-0.001739746258996533</v>
       </c>
       <c r="D181">
-        <v>0.04575698758565205</v>
+        <v>-0.00131864541045064</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.001739746258996533</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>127.3548611267206</v>
+        <v>0.006735715801154285</v>
       </c>
       <c r="D182">
-        <v>0.05080285535632435</v>
+        <v>0.005105354117798193</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.006735715801154285</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>128.3548611267206</v>
+        <v>0.00856708174039067</v>
       </c>
       <c r="D183">
-        <v>0.05079473953619029</v>
+        <v>0.006493442914162431</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.00856708174039067</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>129.3548611267206</v>
+        <v>-0.002764965307658684</v>
       </c>
       <c r="D184">
-        <v>0.05128148485568067</v>
+        <v>-0.002095712977766277</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.002764965307658684</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C185">
-        <v>129.6639520358115</v>
+        <v>-0.0003206482952951006</v>
       </c>
       <c r="D185">
-        <v>0.05700201615848401</v>
+        <v>-0.0001984803367456992</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.0003206482952951006</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>130.6639520358115</v>
+        <v>-0.0007437167219697116</v>
       </c>
       <c r="D186">
-        <v>0.05699398790007253</v>
+        <v>-0.0005637021128968606</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.0007437167219697116</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C187">
-        <v>130.9730429449024</v>
+        <v>-0.004986957987014762</v>
       </c>
       <c r="D187">
-        <v>0.05075415870658741</v>
+        <v>-0.003086912093789223</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.004986957987014762</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C188">
-        <v>131.2821338539933</v>
+        <v>0.00285482329296638</v>
       </c>
       <c r="D188">
-        <v>0.04743301371121527</v>
+        <v>0.001767127088625101</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.00285482329296638</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C189">
-        <v>131.3347654329407</v>
+        <v>0.005772526634123309</v>
       </c>
       <c r="D189">
-        <v>0.0535966546298482</v>
+        <v>0.00324323274119468</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.005772526634123309</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C190">
-        <v>131.6438563420316</v>
+        <v>0.006302861490641298</v>
       </c>
       <c r="D190">
-        <v>0.05070506325575793</v>
+        <v>0.003901452430840661</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.006302861490641298</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C191">
-        <v>131.9529472511225</v>
+        <v>-0.003400059701970548</v>
       </c>
       <c r="D191">
-        <v>0.03717609488440345</v>
+        <v>-0.002104626796726049</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.003400059701970548</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C192">
-        <v>132.2620381602135</v>
+        <v>0.00231618974695369</v>
       </c>
       <c r="D192">
-        <v>0.04166940997890738</v>
+        <v>0.001433714532987659</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.00231618974695369</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C193">
-        <v>132.5711290693044</v>
+        <v>-0.0003615512032038026</v>
       </c>
       <c r="D193">
-        <v>0.04563201558570493</v>
+        <v>-0.0002237991145303305</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.0003615512032038026</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C194">
-        <v>132.8802199783953</v>
+        <v>-0.005715378860677411</v>
       </c>
       <c r="D194">
-        <v>0.04623734428700931</v>
+        <v>-0.003537802438190091</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.005715378860677411</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C195">
-        <v>133.1893108874862</v>
+        <v>0.0002909090929605895</v>
       </c>
       <c r="D195">
-        <v>0.02959619344538765</v>
+        <v>0.0001800718593562595</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0002909090929605895</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C196">
-        <v>133.2419424664336</v>
+        <v>0.01794448755524058</v>
       </c>
       <c r="D196">
-        <v>0.02929094429732161</v>
+        <v>0.01008191962581659</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.01794448755524058</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C197">
-        <v>133.5510333755245</v>
+        <v>-0.001172031464562906</v>
       </c>
       <c r="D197">
-        <v>0.04288351455212024</v>
+        <v>-0.0007254839747359637</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.001172031464562906</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C198">
-        <v>133.8601242846154</v>
+        <v>-0.000271764396245544</v>
       </c>
       <c r="D198">
-        <v>0.05516975733415147</v>
+        <v>-0.000168221349290708</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.000271764396245544</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C199">
-        <v>134.1692151937063</v>
+        <v>-0.001231016029835885</v>
       </c>
       <c r="D199">
-        <v>0.05746221553427049</v>
+        <v>-0.0007619952444041997</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.001231016029835885</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C200">
-        <v>134.4783061027972</v>
+        <v>0.002289050757723565</v>
       </c>
       <c r="D200">
-        <v>0.05222551174195769</v>
+        <v>0.001416915579740845</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.002289050757723565</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C201">
-        <v>134.7873970118881</v>
+        <v>0.004562441972822739</v>
       </c>
       <c r="D201">
-        <v>0.05648052309544416</v>
+        <v>0.002824137949385212</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.004562441972822739</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C202">
-        <v>135.096487920979</v>
+        <v>-0.007152320007821622</v>
       </c>
       <c r="D202">
-        <v>0.05915844589957966</v>
+        <v>-0.004427264714939304</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.007152320007821622</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C203">
-        <v>135.4055788300699</v>
+        <v>0.008829481166766406</v>
       </c>
       <c r="D203">
-        <v>0.06608130804240181</v>
+        <v>0.005465422461256985</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.008829481166766406</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C204">
-        <v>135.7146697391609</v>
+        <v>-1.420141872188196e-05</v>
       </c>
       <c r="D204">
-        <v>0.06079680318003543</v>
+        <v>-8.790635757447852e-06</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-1.420141872188196e-05</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C205">
-        <v>136.0237606482518</v>
+        <v>0.0008517283501623396</v>
       </c>
       <c r="D205">
-        <v>0.060350329565462</v>
+        <v>0.00052721730393264</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0008517283501623396</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C206">
-        <v>136.3328515573427</v>
+        <v>0.01001003706350989</v>
       </c>
       <c r="D206">
-        <v>0.05608496816403021</v>
+        <v>0.006196183034043189</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.01001003706350989</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C207">
-        <v>136.6419424664336</v>
+        <v>-1.404819937178559e-05</v>
       </c>
       <c r="D207">
-        <v>0.05567850757104655</v>
+        <v>-8.695793437531264e-06</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-1.404819937178559e-05</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C208">
-        <v>136.9510333755245</v>
+        <v>-0.01091872733327204</v>
       </c>
       <c r="D208">
-        <v>0.05442566632244273</v>
+        <v>-0.00675865959601569</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.01091872733327204</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C209">
-        <v>137.2601242846154</v>
+        <v>-0.005811485461267196</v>
       </c>
       <c r="D209">
-        <v>0.05106383221045493</v>
+        <v>-0.003597292136805172</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.005811485461267196</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C210">
-        <v>137.3127558635628</v>
+        <v>0.01119393471632257</v>
       </c>
       <c r="D210">
-        <v>0.02814763089082329</v>
+        <v>0.006289193255543434</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.01119393471632257</v>
+        <v>0.5</v>
       </c>
       <c r="C211">
-        <v>137.8127558635628</v>
+        <v>-0.004771926955577932</v>
       </c>
       <c r="D211">
-        <v>-0.002512232609693781</v>
+        <v>-0.003150490110739621</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.004771926955577932</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C212">
-        <v>138.6986619038312</v>
+        <v>-0.01884131357058738</v>
       </c>
       <c r="D212">
-        <v>-0.007533435284841505</v>
+        <v>-0.01389057267238797</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.01884131357058738</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C213">
-        <v>139.5845679440997</v>
+        <v>0.006257680285974843</v>
       </c>
       <c r="D213">
-        <v>-0.02876533636390909</v>
+        <v>0.004613413096027212</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.006257680285974843</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C214">
-        <v>140.4704739843681</v>
+        <v>0.005518580038395449</v>
       </c>
       <c r="D214">
-        <v>-0.03530787521385673</v>
+        <v>0.004068518725328542</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.005518580038395449</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C215">
-        <v>141.3563800246366</v>
+        <v>0.000843019775158993</v>
       </c>
       <c r="D215">
-        <v>-0.02038340771294006</v>
+        <v>0.0006215080178584965</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.000843019775158993</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C216">
-        <v>142.242286064905</v>
+        <v>-0.02317553952201656</v>
       </c>
       <c r="D216">
-        <v>-0.03390440534800038</v>
+        <v>-0.0170859380237115</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.02317553952201656</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C217">
-        <v>143.2074759383228</v>
+        <v>-0.0004093687007076241</v>
       </c>
       <c r="D217">
-        <v>-0.0113263489489482</v>
+        <v>-0.0003077403540378311</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.0004093687007076241</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C218">
-        <v>144.1726658117405</v>
+        <v>0.01822895447780315</v>
       </c>
       <c r="D218">
-        <v>-0.04785615558404322</v>
+        <v>0.01370350223415156</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.01822895447780315</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C219">
-        <v>145.1378556851582</v>
+        <v>0.01647704269159966</v>
       </c>
       <c r="D219">
-        <v>-0.05432991678485703</v>
+        <v>0.01238651353326315</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.01647704269159966</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C220">
-        <v>146.103045558576</v>
+        <v>0.003074408694520692</v>
       </c>
       <c r="D220">
-        <v>-0.1236517371146822</v>
+        <v>0.002311167459733355</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.003074408694520692</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C221">
-        <v>147.0682354319937</v>
+        <v>-0.007022927470991647</v>
       </c>
       <c r="D221">
-        <v>-0.08713466886408194</v>
+        <v>-0.005279441692950924</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.007022927470991647</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>148.0682354319937</v>
+        <v>0.005613821597184376</v>
       </c>
       <c r="D222">
-        <v>-0.1210173831701605</v>
+        <v>0.004255011353486468</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.005613821597184376</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>149.0682354319937</v>
+        <v>0.003533100061209105</v>
       </c>
       <c r="D223">
-        <v>-0.199291335357544</v>
+        <v>0.00267792280413551</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.003533100061209105</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>150.0682354319937</v>
+        <v>0.009133633211074965</v>
       </c>
       <c r="D224">
-        <v>-0.157615743977119</v>
+        <v>0.006922862142822141</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.009133633211074965</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>151.0682354319937</v>
+        <v>-0.006972077172595625</v>
       </c>
       <c r="D225">
-        <v>-0.2497449380128379</v>
+        <v>-0.005284504862366378</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.006972077172595625</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>152.0682354319937</v>
+        <v>-0.0005890520639884045</v>
       </c>
       <c r="D226">
-        <v>-0.2270095327080395</v>
+        <v>-0.0004464736145734307</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.0005890520639884045</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>153.0682354319937</v>
+        <v>-0.005627476865727843</v>
       </c>
       <c r="D227">
-        <v>-0.2832647476852144</v>
+        <v>-0.004265361401431793</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.005627476865727843</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>154.0682354319937</v>
+        <v>-0.0005362611437984555</v>
       </c>
       <c r="D228">
-        <v>-0.2807750251966898</v>
+        <v>-0.0004064605929836651</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.0005362611437984555</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>155.0682354319937</v>
+        <v>-0.001652927965396067</v>
       </c>
       <c r="D229">
-        <v>-0.3199910253339061</v>
+        <v>-0.001252841248603818</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.001652927965396067</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>156.0682354319937</v>
+        <v>-0.004435414003904903</v>
       </c>
       <c r="D230">
-        <v>-0.3548261391655969</v>
+        <v>-0.003361834111987794</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.004435414003904903</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>157.0682354319937</v>
+        <v>-0.03023434139327552</v>
       </c>
       <c r="D231">
-        <v>-0.26386586234905</v>
+        <v>-0.02291620131963164</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.03023434139327552</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C232">
-        <v>158.0334253054114</v>
+        <v>-0.04111784935224261</v>
       </c>
       <c r="D232">
-        <v>-0.2247596074260385</v>
+        <v>-0.03091008544390576</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.04111784935224261</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="C233">
-        <v>158.6304402307846</v>
+        <v>-0.007978297363931297</v>
       </c>
       <c r="D233">
-        <v>-0.1776360414132658</v>
+        <v>-0.005429037997901929</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.007978297363931297</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>158.6304402307846</v>
+        <v>-0.03860345650739561</v>
       </c>
       <c r="D234">
-        <v>-0.2112158768005355</v>
+        <v>-0.02123190107906758</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.03860345650739561</v>
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>158.6304402307846</v>
+        <v>-0.01189552518172299</v>
       </c>
       <c r="D235">
-        <v>-0.2029297547498485</v>
+        <v>-0.006542538849947644</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.01189552518172299</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>158.6304402307846</v>
+        <v>0.02713539545621213</v>
       </c>
       <c r="D236">
-        <v>-0.212616858255462</v>
+        <v>0.01492446750091667</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.02713539545621213</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>158.6304402307846</v>
+        <v>-0.02458363206374603</v>
       </c>
       <c r="D237">
-        <v>-0.2463109891521266</v>
+        <v>-0.01352099763506032</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.02458363206374603</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>158.6304402307846</v>
+        <v>0.04105101163464031</v>
       </c>
       <c r="D238">
-        <v>-0.2382892647577067</v>
+        <v>0.02257805639905217</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.04105101163464031</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C239">
-        <v>159.516346271053</v>
+        <v>-0.05087376380759778</v>
       </c>
       <c r="D239">
-        <v>-0.2501461034894034</v>
+        <v>-0.03750618079996782</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.05087376380759778</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C240">
-        <v>160.4022523113215</v>
+        <v>-0.009015777213575049</v>
       </c>
       <c r="D240">
-        <v>-0.2014214760452389</v>
+        <v>-0.006646792863673968</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.009015777213575049</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C241">
-        <v>161.2881583515899</v>
+        <v>-0.09654203618981416</v>
       </c>
       <c r="D241">
-        <v>-0.2028371659819529</v>
+        <v>-0.07117466436779417</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.09654203618981416</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C242">
-        <v>162.1740643918584</v>
+        <v>0.05085602351210294</v>
       </c>
       <c r="D242">
-        <v>-0.1830345971480265</v>
+        <v>0.03749310194201678</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.05085602351210294</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C243">
-        <v>162.2873977251917</v>
+        <v>-0.06128292561082649</v>
       </c>
       <c r="D243">
-        <v>-0.1752065447677879</v>
+        <v>-0.03526665315130226</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.06128292561082649</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C244">
-        <v>163.1733037654602</v>
+        <v>-0.1090093521612694</v>
       </c>
       <c r="D244">
-        <v>-0.1960312680487109</v>
+        <v>-0.08036607015180837</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1090093521612694</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C245">
-        <v>163.2866370987935</v>
+        <v>0.07537773223485811</v>
       </c>
       <c r="D245">
-        <v>-0.1825835379725891</v>
+        <v>0.04337783014701321</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.07537773223485811</v>
+        <v>1</v>
       </c>
       <c r="C246">
-        <v>164.2866370987935</v>
+        <v>-0.1215500538641638</v>
       </c>
       <c r="D246">
-        <v>-0.1983988972413439</v>
+        <v>-0.09212919403571891</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1215500538641638</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C247">
-        <v>164.3999704321268</v>
+        <v>0.04112103119719634</v>
       </c>
       <c r="D247">
-        <v>-0.2030778856533754</v>
+        <v>0.02366403251804292</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.04112103119719634</v>
+        <v>1</v>
       </c>
       <c r="C248">
-        <v>165.3999704321268</v>
+        <v>-0.07421995255884539</v>
       </c>
       <c r="D248">
-        <v>-0.1776904902704246</v>
+        <v>-0.05625521497717485</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.07421995255884539</v>
+        <v>1</v>
       </c>
       <c r="C249">
-        <v>166.3999704321268</v>
+        <v>0.003284799196980437</v>
       </c>
       <c r="D249">
-        <v>-0.1927996655744209</v>
+        <v>0.002489722488524593</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.003284799196980437</v>
+        <v>1</v>
       </c>
       <c r="C250">
-        <v>167.3999704321268</v>
+        <v>-0.05173937511238424</v>
       </c>
       <c r="D250">
-        <v>-0.2103603568466945</v>
+        <v>-0.03921600013721627</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.05173937511238424</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>168.3999704321268</v>
+        <v>-0.04595948121465909</v>
       </c>
       <c r="D251">
-        <v>-0.2040652381554415</v>
+        <v>-0.03483511383169088</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.04595948121465909</v>
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>169.3999704321268</v>
+        <v>0.1200078505219961</v>
       </c>
       <c r="D252">
-        <v>-0.1998401287916432</v>
+        <v>0.09096027681654693</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1200078505219961</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>170.3999704321268</v>
+        <v>0.05159458347670842</v>
       </c>
       <c r="D253">
-        <v>-0.1943531076534328</v>
+        <v>0.03910625492301148</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.05159458347670842</v>
+        <v>1</v>
       </c>
       <c r="C254">
-        <v>171.3999704321268</v>
+        <v>0.0621721707985774</v>
       </c>
       <c r="D254">
-        <v>-0.1764677757849784</v>
+        <v>0.04712356601277264</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.0621721707985774</v>
+        <v>1</v>
       </c>
       <c r="C255">
-        <v>172.3999704321268</v>
+        <v>-0.04430333775078843</v>
       </c>
       <c r="D255">
-        <v>-0.1633798546793317</v>
+        <v>-0.03357983538726963</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.04430333775078843</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C256">
-        <v>172.5133037654602</v>
+        <v>0.01498692804381907</v>
       </c>
       <c r="D256">
-        <v>-0.1496048093672158</v>
+        <v>0.008624568554075661</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.01498692804381907</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>173.5133037654602</v>
+        <v>-0.01278061710209411</v>
       </c>
       <c r="D257">
-        <v>-0.1644117992040858</v>
+        <v>-0.009687103505613534</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.01278061710209411</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C258">
-        <v>174.3992098057286</v>
+        <v>-0.04692461895739619</v>
       </c>
       <c r="D258">
-        <v>-0.1861048756945061</v>
+        <v>-0.03459471269398896</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.04692461895739619</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C259">
-        <v>174.512543139062</v>
+        <v>0.01450871777547036</v>
       </c>
       <c r="D259">
-        <v>-0.1935091487400867</v>
+        <v>0.008349371580381152</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.01450871777547036</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>175.512543139062</v>
+        <v>-0.0156432431823692</v>
       </c>
       <c r="D260">
-        <v>-0.191150182000808</v>
+        <v>-0.01185683873169663</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.0156432431823692</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C261">
-        <v>176.3984491793304</v>
+        <v>0.06785705747005455</v>
       </c>
       <c r="D261">
-        <v>-0.1987517780153264</v>
+        <v>0.05002694661340507</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.06785705747005455</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>177.3984491793304</v>
+        <v>-0.00186778132451515</v>
       </c>
       <c r="D262">
-        <v>-0.1924878196539205</v>
+        <v>-0.001415689936714057</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.00186778132451515</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C263">
-        <v>177.5117825126638</v>
+        <v>0.03581647390436693</v>
       </c>
       <c r="D263">
-        <v>-0.178850299193698</v>
+        <v>0.0206114043952371</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.03581647390436693</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C264">
-        <v>177.6251158459971</v>
+        <v>0.01415842743182338</v>
       </c>
       <c r="D264">
-        <v>-0.1857897548787706</v>
+        <v>0.008147789036328035</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.01415842743182338</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C265">
-        <v>178.5110218862656</v>
+        <v>-0.02900185221715468</v>
       </c>
       <c r="D265">
-        <v>-0.2017268037931636</v>
+        <v>-0.0213813296162707</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.02900185221715468</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C266">
-        <v>179.396927926534</v>
+        <v>0.0187281758831892</v>
       </c>
       <c r="D266">
-        <v>-0.2160599494501744</v>
+        <v>0.01380716302778422</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.0187281758831892</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C267">
-        <v>179.5102612598674</v>
+        <v>-0.02860489501579622</v>
       </c>
       <c r="D267">
-        <v>-0.210728968999513</v>
+        <v>-0.01646133732840721</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.02860489501579622</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C268">
-        <v>179.6235945932007</v>
+        <v>-0.008462784185415906</v>
       </c>
       <c r="D268">
-        <v>-0.2124255046385715</v>
+        <v>-0.004870101608018902</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.008462784185415906</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C269">
-        <v>179.7369279265341</v>
+        <v>0.04591762775117747</v>
       </c>
       <c r="D269">
-        <v>-0.1772048145291697</v>
+        <v>0.02642434308236264</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.04591762775117747</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C270">
-        <v>179.8502612598674</v>
+        <v>-0.0273276354967118</v>
       </c>
       <c r="D270">
-        <v>-0.184335875376276</v>
+        <v>-0.01572630929254282</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.0273276354967118</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C271">
-        <v>180.7361673001359</v>
+        <v>-0.02445615080878927</v>
       </c>
       <c r="D271">
-        <v>-0.1744683019652959</v>
+        <v>-0.01803005606926887</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.02445615080878927</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C272">
-        <v>180.8495006334692</v>
+        <v>0.01138584373679219</v>
       </c>
       <c r="D272">
-        <v>-0.1735557243315617</v>
+        <v>0.006552242698893599</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.01138584373679219</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C273">
-        <v>180.9628339668025</v>
+        <v>0.007641863060327658</v>
       </c>
       <c r="D273">
-        <v>-0.1741810360948266</v>
+        <v>0.004397683878374001</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.007641863060327658</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C274">
-        <v>181.848740007071</v>
+        <v>0.007641579386966413</v>
       </c>
       <c r="D274">
-        <v>-0.1512480579250334</v>
+        <v>0.005633679064297304</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.007641579386966413</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C275">
-        <v>182.7346460473395</v>
+        <v>0.02490826623270692</v>
       </c>
       <c r="D275">
-        <v>-0.1331108930767103</v>
+        <v>0.01836337370812179</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.02490826623270692</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C276">
-        <v>183.6205520876079</v>
+        <v>0.01822708271391349</v>
       </c>
       <c r="D276">
-        <v>-0.1385480197968657</v>
+        <v>0.01343773702904031</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.01822708271391349</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C277">
-        <v>184.5064581278764</v>
+        <v>0.01918401618294574</v>
       </c>
       <c r="D277">
-        <v>-0.142018425997058</v>
+        <v>0.01414322679462561</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.01918401618294574</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C278">
-        <v>185.3923641681448</v>
+        <v>-0.02062116865789054</v>
       </c>
       <c r="D278">
-        <v>-0.1409261677693432</v>
+        <v>-0.01520275328781483</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.02062116865789054</v>
+        <v>0.8859060402684564</v>
       </c>
       <c r="C279">
-        <v>186.2782702084133</v>
+        <v>-0.03021117687969177</v>
       </c>
       <c r="D279">
-        <v>-0.133873954701364</v>
+        <v>-0.02227289230092904</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.03021117687969177</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C280">
-        <v>186.3916035417466</v>
+        <v>-0.01339194700151758</v>
       </c>
       <c r="D280">
-        <v>-0.1127010446752067</v>
+        <v>-0.007706700442508025</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.01339194700151758</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C281">
-        <v>186.5049368750799</v>
+        <v>0.004266611638480633</v>
       </c>
       <c r="D281">
-        <v>-0.1069381012156446</v>
+        <v>0.002455318692536824</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.004266611638480633</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C282">
-        <v>186.6182702084133</v>
+        <v>-0.01374884074732208</v>
       </c>
       <c r="D282">
-        <v>-0.08677164890396039</v>
+        <v>-0.007912083064497807</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.01374884074732208</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C283">
-        <v>186.7316035417466</v>
+        <v>0.01132948472851503</v>
       </c>
       <c r="D283">
-        <v>-0.07596303404294502</v>
+        <v>0.006519809625944633</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.01132948472851503</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C284">
-        <v>186.84493687508</v>
+        <v>0.02466588551112636</v>
       </c>
       <c r="D284">
-        <v>-0.09002762745706486</v>
+        <v>0.01419454473363048</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.02466588551112636</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C285">
-        <v>186.9582702084133</v>
+        <v>-0.01255124198983193</v>
       </c>
       <c r="D285">
-        <v>-0.1033733099055875</v>
+        <v>-0.007222897625423825</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.01255124198983193</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C286">
-        <v>187.0716035417467</v>
+        <v>-0.0288249924210362</v>
       </c>
       <c r="D286">
-        <v>-0.1437740661816649</v>
+        <v>-0.01658799738539262</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.0288249924210362</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C287">
-        <v>187.157317827461</v>
+        <v>-0.02598217404683645</v>
       </c>
       <c r="D287">
-        <v>-0.1330812132879476</v>
+        <v>-0.01479097394957265</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.02598217404683645</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C288">
-        <v>187.2430321131752</v>
+        <v>0.009663647131194608</v>
       </c>
       <c r="D288">
-        <v>-0.1279814784285193</v>
+        <v>0.005501262239168377</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.009663647131194608</v>
+        <v>0</v>
       </c>
       <c r="C289">
-        <v>187.2430321131752</v>
+        <v>-0.003084610252833464</v>
       </c>
       <c r="D289">
-        <v>-0.1173643167717214</v>
+        <v>-0.001696535639058405</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.003084610252833464</v>
+        <v>0</v>
       </c>
       <c r="C290">
-        <v>187.2430321131752</v>
+        <v>0.06403761838073052</v>
       </c>
       <c r="D290">
-        <v>-0.122415312803583</v>
+        <v>0.03522069010940179</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.06403761838073052</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C291">
-        <v>187.3287463988895</v>
+        <v>-0.0129267132632167</v>
       </c>
       <c r="D291">
-        <v>-0.1249406491380969</v>
+        <v>-0.007358840672269058</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.0129267132632167</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C292">
-        <v>187.4144606846038</v>
+        <v>0.01788728140487539</v>
       </c>
       <c r="D292">
-        <v>-0.134606599504801</v>
+        <v>0.01018276272075088</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.01788728140487539</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C293">
-        <v>187.5001749703181</v>
+        <v>0.001654260096026761</v>
       </c>
       <c r="D293">
-        <v>-0.133125461350191</v>
+        <v>0.0009417271219122088</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.001654260096026761</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C294">
-        <v>187.5858892560324</v>
+        <v>-0.001133523614108789</v>
       </c>
       <c r="D294">
-        <v>-0.133125461350191</v>
+        <v>-0.000645285425972656</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.001133523614108789</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C295">
-        <v>187.6716035417467</v>
+        <v>0.04157137898953955</v>
       </c>
       <c r="D295">
-        <v>-0.1528937722281852</v>
+        <v>0.02366550168487377</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.04157137898953955</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C296">
-        <v>187.757317827461</v>
+        <v>0.03287784726968113</v>
       </c>
       <c r="D296">
-        <v>-0.1467654505453956</v>
+        <v>0.01871650084428145</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.03287784726968113</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C297">
-        <v>187.8706511607943</v>
+        <v>-0.009834012391036318</v>
       </c>
       <c r="D297">
-        <v>-0.1568724069017281</v>
+        <v>-0.005659206061451759</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.009834012391036318</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C298">
-        <v>187.9839844941277</v>
+        <v>-0.006276847925597906</v>
       </c>
       <c r="D298">
-        <v>-0.1330646060342009</v>
+        <v>-0.003612154877873937</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.006276847925597906</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C299">
-        <v>188.069698779842</v>
+        <v>0.001979973137487434</v>
       </c>
       <c r="D299">
-        <v>-0.1294844729100554</v>
+        <v>0.001127147060312917</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.001979973137487434</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C300">
-        <v>188.1554130655562</v>
+        <v>0.01278378324844454</v>
       </c>
       <c r="D300">
-        <v>-0.1321650064404351</v>
+        <v>0.007277474343135235</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.01278378324844454</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C301">
-        <v>188.2411273512705</v>
+        <v>0.03838084441069967</v>
       </c>
       <c r="D301">
-        <v>-0.1277742087374469</v>
+        <v>0.02184921357304129</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.03838084441069967</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C302">
-        <v>188.3544606846039</v>
+        <v>0.0104233100141089</v>
       </c>
       <c r="D302">
-        <v>-0.1166200499752632</v>
+        <v>0.005998330779611691</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.0104233100141089</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C303">
-        <v>188.4677940179372</v>
+        <v>0.03647462200599172</v>
       </c>
       <c r="D303">
-        <v>-0.1274477713129874</v>
+        <v>0.02099015068697891</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.03647462200599172</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C304">
-        <v>188.5811273512706</v>
+        <v>0.01954930571677505</v>
       </c>
       <c r="D304">
-        <v>-0.12769611969537</v>
+        <v>0.01125009253703901</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.01954930571677505</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C305">
-        <v>188.6944606846039</v>
+        <v>-0.02543832303864146</v>
       </c>
       <c r="D305">
-        <v>-0.1440826391191297</v>
+        <v>-0.01463906147450735</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.02543832303864146</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C306">
-        <v>188.8077940179373</v>
+        <v>-0.0241380444710062</v>
       </c>
       <c r="D306">
-        <v>-0.1343797136340695</v>
+        <v>-0.01389078660368814</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.0241380444710062</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C307">
-        <v>188.9211273512706</v>
+        <v>-0.07307196581484643</v>
       </c>
       <c r="D307">
-        <v>-0.1312209694943316</v>
+        <v>-0.04205092442617885</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.07307196581484643</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C308">
-        <v>189.0344606846039</v>
+        <v>0.01933992957393116</v>
       </c>
       <c r="D308">
-        <v>-0.1148758518343193</v>
+        <v>0.01112960227430703</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.01933992957393116</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C309">
-        <v>189.1477940179373</v>
+        <v>0.009223779098748608</v>
       </c>
       <c r="D309">
-        <v>-0.09578609562847389</v>
+        <v>0.005308033436352967</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.009223779098748608</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C310">
-        <v>189.2611273512706</v>
+        <v>0.01920302848626676</v>
       </c>
       <c r="D310">
-        <v>-0.09574849410442991</v>
+        <v>0.01105081943020203</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.01920302848626676</v>
+        <v>1</v>
       </c>
       <c r="C311">
-        <v>190.2611273512706</v>
+        <v>-0.006663998813475125</v>
       </c>
       <c r="D311">
-        <v>-0.09162367319446744</v>
+        <v>-0.00505099603186156</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.006663998813475125</v>
+        <v>1</v>
       </c>
       <c r="C312">
-        <v>191.2611273512706</v>
+        <v>-0.003331786093410116</v>
       </c>
       <c r="D312">
-        <v>-0.1004379781052286</v>
+        <v>-0.002525336334513866</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.003331786093410116</v>
+        <v>1</v>
       </c>
       <c r="C313">
-        <v>192.2611273512706</v>
+        <v>-0.0127527088456425</v>
       </c>
       <c r="D313">
-        <v>-0.09060219020474089</v>
+        <v>-0.009665950366704179</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.0127527088456425</v>
+        <v>1</v>
       </c>
       <c r="C314">
-        <v>193.2611273512706</v>
+        <v>0.00195413000577549</v>
       </c>
       <c r="D314">
-        <v>-0.08439090172414335</v>
+        <v>0.001481138154609974</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.00195413000577549</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C315">
-        <v>193.374460684604</v>
+        <v>0</v>
       </c>
       <c r="D315">
-        <v>-0.0870006319376555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C316">
-        <v>193.4877940179373</v>
+        <v>-0.03575451228741944</v>
       </c>
       <c r="D316">
-        <v>-0.09308354257977002</v>
+        <v>-0.02057574717372229</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.03575451228741944</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C317">
-        <v>193.6011273512707</v>
+        <v>0.01108416162923032</v>
       </c>
       <c r="D317">
-        <v>-0.09091040532268722</v>
+        <v>0.006378632869674564</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.01108416162923032</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C318">
-        <v>193.714460684604</v>
+        <v>-0.01828023129852596</v>
       </c>
       <c r="D318">
-        <v>-0.0945705547791296</v>
+        <v>-0.01051977480358416</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.01828023129852596</v>
+        <v>1</v>
       </c>
       <c r="C319">
-        <v>194.714460684604</v>
+        <v>0.03141066746674515</v>
       </c>
       <c r="D319">
-        <v>-0.08333331701149518</v>
+        <v>0.02380780086752711</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.03141066746674515</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C320">
-        <v>194.8277940179374</v>
+        <v>0.006475308617305942</v>
       </c>
       <c r="D320">
-        <v>-0.09071073792712638</v>
+        <v>0.00372636359602623</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.006475308617305942</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C321">
-        <v>194.9411273512707</v>
+        <v>-0.004848222472841002</v>
       </c>
       <c r="D321">
-        <v>-0.09376949495608326</v>
+        <v>-0.00279001987333037</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-0.004848222472841002</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C322">
-        <v>195.054460684604</v>
+        <v>0.007941539941979769</v>
       </c>
       <c r="D322">
-        <v>-0.09073565746687012</v>
+        <v>0.004570139754743287</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.007941539941979769</v>
+        <v>1</v>
       </c>
       <c r="C323">
-        <v>196.054460684604</v>
+        <v>0.01471616692779509</v>
       </c>
       <c r="D323">
-        <v>-0.08867011868245342</v>
+        <v>0.0111541587621837</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.01471616692779509</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C324">
-        <v>196.1677940179374</v>
+        <v>-0.01958386318405037</v>
       </c>
       <c r="D324">
-        <v>-0.07390361977899564</v>
+        <v>-0.01126997941743904</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.01958386318405037</v>
+        <v>1</v>
       </c>
       <c r="C325">
-        <v>197.1677940179374</v>
+        <v>-0.0003276568255223822</v>
       </c>
       <c r="D325">
-        <v>-0.0715067081172012</v>
+        <v>-0.0002483483823825692</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.0003276568255223822</v>
+        <v>1</v>
       </c>
       <c r="C326">
-        <v>198.1677940179374</v>
+        <v>-0.02161944798770232</v>
       </c>
       <c r="D326">
-        <v>-0.05849928719271874</v>
+        <v>-0.01638651942375971</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.02161944798770232</v>
+        <v>1</v>
       </c>
       <c r="C327">
-        <v>199.1677940179374</v>
+        <v>0.0128014917279291</v>
       </c>
       <c r="D327">
-        <v>-0.04031779074279744</v>
+        <v>0.009702925485060165</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.0128014917279291</v>
+        <v>1</v>
       </c>
       <c r="C328">
-        <v>200.1677940179374</v>
+        <v>0.00416746856788297</v>
       </c>
       <c r="D328">
-        <v>-0.03631796959704189</v>
+        <v>0.003158744139737869</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.00416746856788297</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>201.1677940179374</v>
+        <v>0.02156482483956523</v>
       </c>
       <c r="D329">
-        <v>-0.03359761831706947</v>
+        <v>0.01634511766001235</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.02156482483956523</v>
+        <v>1</v>
       </c>
       <c r="C330">
-        <v>202.1677940179374</v>
+        <v>0.02518594588133105</v>
       </c>
       <c r="D330">
-        <v>-0.03853619376514773</v>
+        <v>0.0190897562058454</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.02518594588133105</v>
+        <v>1</v>
       </c>
       <c r="C331">
-        <v>203.1677940179374</v>
+        <v>4.960932656317141e-05</v>
       </c>
       <c r="D331">
-        <v>-0.03539079601300368</v>
+        <v>3.760152404397459e-05</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>4.960932656317141e-05</v>
+        <v>1</v>
       </c>
       <c r="C332">
-        <v>204.1677940179374</v>
+        <v>0.005442055680977553</v>
       </c>
       <c r="D332">
-        <v>-0.03915287432080949</v>
+        <v>0.004124820909962469</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.005442055680977553</v>
+        <v>1</v>
       </c>
       <c r="C333">
-        <v>205.1677940179374</v>
+        <v>-0.01162909594392847</v>
       </c>
       <c r="D333">
-        <v>-0.042141268880541</v>
+        <v>-0.008814304910761118</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.01162909594392847</v>
+        <v>1</v>
       </c>
       <c r="C334">
-        <v>206.1677940179374</v>
+        <v>0.01297678289291504</v>
       </c>
       <c r="D334">
-        <v>-0.04371431163959836</v>
+        <v>0.009835787900487673</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.01297678289291504</v>
+        <v>1</v>
       </c>
       <c r="C335">
-        <v>207.1677940179374</v>
+        <v>0.00819482312077735</v>
       </c>
       <c r="D335">
-        <v>-0.04637471083841629</v>
+        <v>0.006211288480597547</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.00819482312077735</v>
+        <v>1</v>
       </c>
       <c r="C336">
-        <v>208.1677940179374</v>
+        <v>-0.003443130609612766</v>
       </c>
       <c r="D336">
-        <v>-0.04475120288643647</v>
+        <v>-0.00260973021351215</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.003443130609612766</v>
+        <v>1</v>
       </c>
       <c r="C337">
-        <v>209.1677940179374</v>
+        <v>-0.00802544865326027</v>
       </c>
       <c r="D337">
-        <v>-0.03127861936502463</v>
+        <v>-0.006082910642114513</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.00802544865326027</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C338">
-        <v>209.2811273512707</v>
+        <v>0.003930505911211135</v>
       </c>
       <c r="D338">
-        <v>-0.03198358958359574</v>
+        <v>0.002261899008544363</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.003930505911211135</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C339">
-        <v>209.3944606846041</v>
+        <v>-0.006620032410550536</v>
       </c>
       <c r="D339">
-        <v>-0.03162524409092855</v>
+        <v>-0.003809648193950128</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.006620032410550536</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>210.3944606846041</v>
+        <v>0.01482577667412155</v>
       </c>
       <c r="D340">
-        <v>-0.02914459591304641</v>
+        <v>0.01123723776763442</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.01482577667412155</v>
+        <v>1</v>
       </c>
       <c r="C341">
-        <v>211.3944606846041</v>
+        <v>-0.009733352376076532</v>
       </c>
       <c r="D341">
-        <v>-0.02337321987957615</v>
+        <v>-0.007377420915631194</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.009733352376076532</v>
+        <v>1</v>
       </c>
       <c r="C342">
-        <v>212.3944606846041</v>
+        <v>-0.00403555122259025</v>
       </c>
       <c r="D342">
-        <v>-0.0308471239604122</v>
+        <v>-0.003058757028956891</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>-0.00403555122259025</v>
+        <v>1</v>
       </c>
       <c r="C343">
-        <v>213.3944606846041</v>
+        <v>0.004002673789656797</v>
       </c>
       <c r="D343">
-        <v>-0.02486090754736087</v>
+        <v>0.003033837489213145</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.004002673789656797</v>
+        <v>1</v>
       </c>
       <c r="C344">
-        <v>214.3944606846041</v>
+        <v>0.002725155181614092</v>
       </c>
       <c r="D344">
-        <v>-0.01470696312388909</v>
+        <v>0.002065538784416701</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.002725155181614092</v>
+        <v>1</v>
       </c>
       <c r="C345">
-        <v>215.3944606846041</v>
+        <v>0.01948208443465305</v>
       </c>
       <c r="D345">
-        <v>-0.03257348425654279</v>
+        <v>0.01476649890345778</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01948208443465305</v>
+        <v>1</v>
       </c>
       <c r="C346">
-        <v>216.3944606846041</v>
+        <v>0.003162349835447387</v>
       </c>
       <c r="D346">
-        <v>-0.03124951743492021</v>
+        <v>0.002396911661794435</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.003162349835447387</v>
+        <v>1</v>
       </c>
       <c r="C347">
-        <v>217.3944606846041</v>
+        <v>0.01716125632654197</v>
       </c>
       <c r="D347">
-        <v>-0.04353065112857223</v>
+        <v>0.01300742092448246</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.01716125632654197</v>
+        <v>1</v>
       </c>
       <c r="C348">
-        <v>218.3944606846041</v>
+        <v>0.02398763927059022</v>
       </c>
       <c r="D348">
-        <v>-0.03375589695649614</v>
+        <v>0.0181814964499213</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.02398763927059022</v>
+        <v>1</v>
       </c>
       <c r="C349">
-        <v>219.3944606846041</v>
+        <v>0.005277138053819463</v>
       </c>
       <c r="D349">
-        <v>-0.04177397273155622</v>
+        <v>0.003999821145755557</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.005277138053819463</v>
+        <v>1</v>
       </c>
       <c r="C350">
-        <v>220.3944606846041</v>
+        <v>0.003589077795274065</v>
       </c>
       <c r="D350">
-        <v>-0.03312115504829295</v>
+        <v>0.002720351279972419</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.003589077795274065</v>
+        <v>1</v>
       </c>
       <c r="C351">
-        <v>221.3944606846041</v>
+        <v>-0.006515677446319756</v>
       </c>
       <c r="D351">
-        <v>-0.02492731964320514</v>
+        <v>-0.004938575448078266</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.006515677446319756</v>
+        <v>1</v>
       </c>
       <c r="C352">
-        <v>222.3944606846041</v>
+        <v>0.004149860098082492</v>
       </c>
       <c r="D352">
-        <v>-0.02443414012443052</v>
+        <v>0.003145397752144052</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.004149860098082492</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>223.3944606846041</v>
+        <v>-0.004963473584472133</v>
       </c>
       <c r="D353">
-        <v>-0.01826427523817387</v>
+        <v>-0.003762078307805809</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.004963473584472133</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C354">
-        <v>223.5077940179374</v>
+        <v>-0.005405043995160952</v>
       </c>
       <c r="D354">
-        <v>-0.01679210201797726</v>
+        <v>-0.003110455480787214</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.005405043995160952</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C355">
-        <v>223.6211273512708</v>
+        <v>-0.002845128094376648</v>
       </c>
       <c r="D355">
-        <v>-0.02364775067365863</v>
+        <v>-0.001637293661738641</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.002845128094376648</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C356">
-        <v>223.7344606846041</v>
+        <v>-0.0048118059469342</v>
       </c>
       <c r="D356">
-        <v>-0.0452726526814578</v>
+        <v>-0.002769063155364808</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.0048118059469342</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C357">
-        <v>223.8477940179374</v>
+        <v>0.002936403387018949</v>
       </c>
       <c r="D357">
-        <v>-0.03883764158578604</v>
+        <v>0.001689820104541674</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.002936403387018949</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>224.8477940179374</v>
+        <v>0.01777496557803548</v>
       </c>
       <c r="D358">
-        <v>-0.05231596391185668</v>
+        <v>0.01347258352141184</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.01777496557803548</v>
+        <v>1</v>
       </c>
       <c r="C359">
-        <v>225.8477940179374</v>
+        <v>-0.0009300978797961434</v>
       </c>
       <c r="D359">
-        <v>-0.05178297710992722</v>
+        <v>-0.0007049702185711091</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.0009300978797961434</v>
+        <v>1</v>
       </c>
       <c r="C360">
-        <v>226.8477940179374</v>
+        <v>0.0004727807986553145</v>
       </c>
       <c r="D360">
-        <v>-0.04057518897917409</v>
+        <v>0.0003583454926671929</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.0004727807986553145</v>
+        <v>1</v>
       </c>
       <c r="C361">
-        <v>227.8477940179374</v>
+        <v>0.003272827064162875</v>
       </c>
       <c r="D361">
-        <v>-0.0269931716151447</v>
+        <v>0.002480648177882139</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.003272827064162875</v>
+        <v>0.59375</v>
       </c>
       <c r="C362">
-        <v>228.4415440179374</v>
+        <v>0.009182634281388324</v>
       </c>
       <c r="D362">
-        <v>-0.03259437070867977</v>
+        <v>0.006242378621116336</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.009182634281388324</v>
+        <v>0.59375</v>
       </c>
       <c r="C363">
-        <v>229.0352940179374</v>
+        <v>-0.011891467031516</v>
       </c>
       <c r="D363">
-        <v>-0.0342439404923764</v>
+        <v>-0.008083850156343395</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.011891467031516</v>
+        <v>0.59375</v>
       </c>
       <c r="C364">
-        <v>229.6290440179374</v>
+        <v>0.009524459285187525</v>
       </c>
       <c r="D364">
-        <v>-0.03612063933028679</v>
+        <v>0.006474752146021276</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.009524459285187525</v>
+        <v>0.59375</v>
       </c>
       <c r="C365">
-        <v>230.2227940179374</v>
+        <v>0.01615558536015538</v>
       </c>
       <c r="D365">
-        <v>-0.02928899570416629</v>
+        <v>0.0109826088651117</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.01615558536015538</v>
+        <v>0.59375</v>
       </c>
       <c r="C366">
-        <v>230.8165440179374</v>
+        <v>-0.02842679605182585</v>
       </c>
       <c r="D366">
-        <v>-0.01912691063776837</v>
+        <v>-0.01932460974738103</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.02842679605182585</v>
+        <v>0.59375</v>
       </c>
       <c r="C367">
-        <v>231.4102940179374</v>
+        <v>0.002106517241840855</v>
       </c>
       <c r="D367">
-        <v>-0.02831391279157841</v>
+        <v>0.001432015889180354</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.002106517241840855</v>
+        <v>0.59375</v>
       </c>
       <c r="C368">
-        <v>232.0040440179374</v>
+        <v>-0.01954008170939314</v>
       </c>
       <c r="D368">
-        <v>-0.0116809647551693</v>
+        <v>-0.01328339826892686</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.01954008170939314</v>
+        <v>0.59375</v>
       </c>
       <c r="C369">
-        <v>232.5977940179374</v>
+        <v>0.01555226903118268</v>
       </c>
       <c r="D369">
-        <v>-0.004664390636211769</v>
+        <v>0.01057247285856476</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.01555226903118268</v>
+        <v>0.59375</v>
       </c>
       <c r="C370">
-        <v>233.1915440179374</v>
+        <v>-0.01275727955618322</v>
       </c>
       <c r="D370">
-        <v>-0.001669120332259675</v>
+        <v>-0.008672431758120993</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01275727955618322</v>
+        <v>0.59375</v>
       </c>
       <c r="C371">
-        <v>233.7852940179374</v>
+        <v>0.01376719517635738</v>
       </c>
       <c r="D371">
-        <v>0.002718846799613353</v>
+        <v>0.009358975018292462</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.01376719517635738</v>
+        <v>0.59375</v>
       </c>
       <c r="C372">
-        <v>234.3790440179374</v>
+        <v>0.01303692454805638</v>
       </c>
       <c r="D372">
-        <v>-0.005389933953004656</v>
+        <v>0.00886253514950939</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.01303692454805638</v>
+        <v>0.59375</v>
       </c>
       <c r="C373">
-        <v>234.9727940179374</v>
+        <v>0.0007846806601605749</v>
       </c>
       <c r="D373">
-        <v>-0.001335807784774289</v>
+        <v>0.0005334279496808246</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.0007846806601605749</v>
+        <v>0.59375</v>
       </c>
       <c r="C374">
-        <v>235.5665440179374</v>
+        <v>0.009816655939157037</v>
       </c>
       <c r="D374">
-        <v>0.001281151526433736</v>
+        <v>0.00667338818988485</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.009816655939157037</v>
+        <v>0.59375</v>
       </c>
       <c r="C375">
-        <v>236.1602940179374</v>
+        <v>0.002342323252118916</v>
       </c>
       <c r="D375">
-        <v>0.006620034032370345</v>
+        <v>0.001592317427081519</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.002342323252118916</v>
+        <v>0.59375</v>
       </c>
       <c r="C376">
-        <v>236.7540440179374</v>
+        <v>-0.01090778247712976</v>
       </c>
       <c r="D376">
-        <v>-0.001212594278608603</v>
+        <v>-0.007415138842786144</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01090778247712976</v>
+        <v>0.59375</v>
       </c>
       <c r="C377">
-        <v>237.3477940179374</v>
+        <v>-0.0344066242360368</v>
       </c>
       <c r="D377">
-        <v>0.002883227448580664</v>
+        <v>-0.02338971246967126</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.0344066242360368</v>
+        <v>0.59375</v>
       </c>
       <c r="C378">
-        <v>237.9415440179374</v>
+        <v>0.0102385207869915</v>
       </c>
       <c r="D378">
-        <v>-0.00465953848273429</v>
+        <v>0.006960173008535409</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.0102385207869915</v>
+        <v>1</v>
       </c>
       <c r="C379">
-        <v>238.9415440179374</v>
+        <v>-0.01778253703269428</v>
       </c>
       <c r="D379">
-        <v>0.001010109974825237</v>
+        <v>-0.01347832232607064</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.01778253703269428</v>
+        <v>0.59375</v>
       </c>
       <c r="C380">
-        <v>239.5352940179374</v>
+        <v>0.0008480166342552664</v>
       </c>
       <c r="D380">
-        <v>0.004033618535996665</v>
+        <v>0.0005764839092803073</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.0008480166342552664</v>
+        <v>1</v>
       </c>
       <c r="C381">
-        <v>240.5352940179374</v>
+        <v>0.01478692248694813</v>
       </c>
       <c r="D381">
-        <v>-0.01515211515384442</v>
+        <v>0.01120778813075313</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.01478692248694813</v>
+        <v>1</v>
       </c>
       <c r="C382">
-        <v>241.5352940179374</v>
+        <v>0.01791934640762971</v>
       </c>
       <c r="D382">
-        <v>-0.03184031062337991</v>
+        <v>0.01358201736402938</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.01791934640762971</v>
+        <v>0.59375</v>
       </c>
       <c r="C383">
-        <v>242.1290440179374</v>
+        <v>-0.008911871712204089</v>
       </c>
       <c r="D383">
-        <v>-0.05298740819483751</v>
+        <v>-0.0060583135237292</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.008911871712204089</v>
+        <v>0.59375</v>
       </c>
       <c r="C384">
-        <v>242.7227940179374</v>
+        <v>-0.002624572711511064</v>
       </c>
       <c r="D384">
-        <v>-0.04392946344644346</v>
+        <v>-0.001784191342250098</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>-0.002624572711511064</v>
+        <v>0.59375</v>
       </c>
       <c r="C385">
-        <v>243.3165440179374</v>
+        <v>-0.002985949795143661</v>
       </c>
       <c r="D385">
-        <v>-0.04448809969696508</v>
+        <v>-0.002029856421779807</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-0.002985949795143661</v>
+        <v>0.59375</v>
       </c>
       <c r="C386">
-        <v>243.9102940179374</v>
+        <v>0.01086958891530099</v>
       </c>
       <c r="D386">
-        <v>-0.02403837912899487</v>
+        <v>0.007389174760310657</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.01086958891530099</v>
+        <v>0.59375</v>
       </c>
       <c r="C387">
-        <v>244.5040440179374</v>
+        <v>0.01616853765201309</v>
       </c>
       <c r="D387">
-        <v>-0.006022337556181503</v>
+        <v>0.01099141386673862</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.01616853765201309</v>
+        <v>1</v>
       </c>
       <c r="C388">
-        <v>245.5040440179374</v>
+        <v>-0.01212081163124967</v>
       </c>
       <c r="D388">
-        <v>-0.01228577104035345</v>
+        <v>-0.009187002153810042</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.01212081163124967</v>
+        <v>1</v>
       </c>
       <c r="C389">
-        <v>246.5040440179374</v>
+        <v>0.02194457197749422</v>
       </c>
       <c r="D389">
-        <v>0.004781479556703244</v>
+        <v>0.01663294803640911</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.02194457197749422</v>
+        <v>1</v>
       </c>
       <c r="C390">
-        <v>247.5040440179374</v>
+        <v>0.009257271498223751</v>
       </c>
       <c r="D390">
-        <v>0.005614361276102446</v>
+        <v>0.007016574118957535</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.009257271498223751</v>
+        <v>1</v>
       </c>
       <c r="C391">
-        <v>248.5040440179374</v>
+        <v>0.003951790424237878</v>
       </c>
       <c r="D391">
-        <v>0.02628917493470282</v>
+        <v>0.002995270303952094</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.003951790424237878</v>
+        <v>1</v>
       </c>
       <c r="C392">
-        <v>249.5040440179374</v>
+        <v>0.005789235939984039</v>
       </c>
       <c r="D392">
-        <v>0.03746477104814242</v>
+        <v>0.004387967131873029</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.005789235939984039</v>
+        <v>1</v>
       </c>
       <c r="C393">
-        <v>250.5040440179374</v>
+        <v>-0.01069826722755529</v>
       </c>
       <c r="D393">
-        <v>0.0326274084215853</v>
+        <v>-0.008108780752618009</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.01069826722755529</v>
+        <v>1</v>
       </c>
       <c r="C394">
-        <v>251.5040440179374</v>
+        <v>0.005348785032564862</v>
       </c>
       <c r="D394">
-        <v>0.02618835568005248</v>
+        <v>0.004054126168230367</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.005348785032564862</v>
+        <v>1</v>
       </c>
       <c r="C395">
-        <v>252.5040440179374</v>
+        <v>0.003452668272712067</v>
       </c>
       <c r="D395">
-        <v>0.03786787141259004</v>
+        <v>0.002616959311208025</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.003452668272712067</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>253.5040440179374</v>
+        <v>0.007043819963511666</v>
       </c>
       <c r="D396">
-        <v>0.05134105939956037</v>
+        <v>0.005338882505936609</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.007043819963511666</v>
+        <v>0.59375</v>
       </c>
       <c r="C397">
-        <v>254.0977940179374</v>
+        <v>-0.01246222059083557</v>
       </c>
       <c r="D397">
-        <v>0.0492012356261755</v>
+        <v>-0.008471849907552464</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01246222059083557</v>
+        <v>1</v>
       </c>
       <c r="C398">
-        <v>255.0977940179374</v>
+        <v>0.005403795797506383</v>
       </c>
       <c r="D398">
-        <v>0.04576902204788274</v>
+        <v>0.004095821727189267</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.005403795797506383</v>
+        <v>1</v>
       </c>
       <c r="C399">
-        <v>256.0977940179374</v>
+        <v>-0.009951499248768592</v>
       </c>
       <c r="D399">
-        <v>0.0475898253281676</v>
+        <v>-0.007542765931314954</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.009951499248768592</v>
+        <v>1</v>
       </c>
       <c r="C400">
-        <v>257.0977940179374</v>
+        <v>0.007480213873791719</v>
       </c>
       <c r="D400">
-        <v>0.04257167901542482</v>
+        <v>0.005669648457559527</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.007480213873791719</v>
+        <v>1</v>
       </c>
       <c r="C401">
-        <v>258.0977940179374</v>
+        <v>0.003989046385521</v>
       </c>
       <c r="D401">
-        <v>0.0548826712840973</v>
+        <v>0.003023508561171427</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.003989046385521</v>
+        <v>1</v>
       </c>
       <c r="C402">
-        <v>259.0977940179374</v>
+        <v>-0.0253125731515631</v>
       </c>
       <c r="D402">
-        <v>0.0646704247509244</v>
+        <v>-0.01918573368984108</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.0253125731515631</v>
+        <v>1</v>
       </c>
       <c r="C403">
-        <v>260.0977940179374</v>
+        <v>-0.02201746231961277</v>
       </c>
       <c r="D403">
-        <v>0.0597481083914134</v>
+        <v>-0.0166881954695355</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.02201746231961277</v>
+        <v>0.59375</v>
       </c>
       <c r="C404">
-        <v>260.6915440179374</v>
+        <v>-0.03364640633106841</v>
       </c>
       <c r="D404">
-        <v>0.05818846799255386</v>
+        <v>-0.02287291436447143</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.03364640633106841</v>
+        <v>0.59375</v>
       </c>
       <c r="C405">
-        <v>261.2852940179374</v>
+        <v>0.01441177866130339</v>
       </c>
       <c r="D405">
-        <v>0.05105560128420705</v>
+        <v>0.009797164544592887</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.01441177866130339</v>
+        <v>0.59375</v>
       </c>
       <c r="C406">
-        <v>261.8790440179374</v>
+        <v>-0.0008888265736137768</v>
       </c>
       <c r="D406">
-        <v>0.05001181144850545</v>
+        <v>-0.0006042266119922031</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.0008888265736137768</v>
+        <v>1</v>
       </c>
       <c r="C407">
-        <v>262.8790440179374</v>
+        <v>0.02698020603089368</v>
       </c>
       <c r="D407">
-        <v>0.05074179797834368</v>
+        <v>0.02044972056797021</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.02698020603089368</v>
+        <v>0.59375</v>
       </c>
       <c r="C408">
-        <v>263.4727940179374</v>
+        <v>0.02866469278765038</v>
       </c>
       <c r="D408">
-        <v>0.05244463003161119</v>
+        <v>0.01948633256593586</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.02866469278765038</v>
+        <v>0.59375</v>
       </c>
       <c r="C409">
-        <v>264.0665440179374</v>
+        <v>-0.009965529658335193</v>
       </c>
       <c r="D409">
-        <v>0.06005497178082392</v>
+        <v>-0.006774592930634178</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-0.009965529658335193</v>
+        <v>1</v>
       </c>
       <c r="C410">
-        <v>265.0665440179374</v>
+        <v>0.02251756624052437</v>
       </c>
       <c r="D410">
-        <v>0.05700508600394568</v>
+        <v>0.01706725059705669</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.02251756624052437</v>
+        <v>0.59375</v>
       </c>
       <c r="C411">
-        <v>265.6602940179374</v>
+        <v>0.001325168934504184</v>
       </c>
       <c r="D411">
-        <v>0.05969545302064264</v>
+        <v>0.0009008532815994667</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.001325168934504184</v>
+        <v>0.59375</v>
       </c>
       <c r="C412">
-        <v>266.2540440179374</v>
+        <v>0.03289497193767588</v>
       </c>
       <c r="D412">
-        <v>0.061199045819167</v>
+        <v>0.02236208731324143</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.03289497193767588</v>
+        <v>0.59375</v>
       </c>
       <c r="C413">
-        <v>266.8477940179374</v>
+        <v>0.01778109958371843</v>
       </c>
       <c r="D413">
-        <v>0.05531458152219454</v>
+        <v>0.01208763765386102</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.01778109958371843</v>
+        <v>0</v>
       </c>
       <c r="C414">
-        <v>266.8477940179374</v>
+        <v>-0.008795204775558396</v>
       </c>
       <c r="D414">
-        <v>0.05676146288193887</v>
+        <v>-0.004837362626557118</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.008795204775558396</v>
+        <v>0</v>
       </c>
       <c r="C415">
-        <v>266.8477940179374</v>
+        <v>-0.01170736862096877</v>
       </c>
       <c r="D415">
-        <v>0.04865143680779285</v>
+        <v>-0.006439052741532825</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.01170736862096877</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>266.8477940179374</v>
+        <v>0.02123548315006829</v>
       </c>
       <c r="D416">
-        <v>0.05723182267384671</v>
+        <v>0.01167951573253756</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.02123548315006829</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>266.8477940179374</v>
+        <v>0.02449670543085514</v>
       </c>
       <c r="D417">
-        <v>0.05335768270659585</v>
+        <v>0.01347318798697033</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.02449670543085514</v>
+        <v>1</v>
       </c>
       <c r="C418">
-        <v>267.8477940179374</v>
+        <v>-0.002823162599402629</v>
       </c>
       <c r="D418">
-        <v>0.05703868178347691</v>
+        <v>-0.002139823773384871</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.002823162599402629</v>
+        <v>1</v>
       </c>
       <c r="C419">
-        <v>268.8477940179374</v>
+        <v>-0.004528268695730198</v>
       </c>
       <c r="D419">
-        <v>0.05719823721697785</v>
+        <v>-0.003432213578292757</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.004528268695730198</v>
+        <v>1</v>
       </c>
       <c r="C420">
-        <v>269.8477940179374</v>
+        <v>0.002402264983549784</v>
       </c>
       <c r="D420">
-        <v>0.05355195791052423</v>
+        <v>0.001820803280284862</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.002402264983549784</v>
+        <v>0</v>
       </c>
       <c r="C421">
-        <v>269.8477940179374</v>
+        <v>-0.00912390238680505</v>
       </c>
       <c r="D421">
-        <v>0.05015617836108442</v>
+        <v>-0.005018146312742777</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.00912390238680505</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>270.8477940179374</v>
+        <v>0.01624242770210582</v>
       </c>
       <c r="D422">
-        <v>0.05301966968726516</v>
+        <v>0.01231099226867247</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.01624242770210582</v>
+        <v>0</v>
       </c>
       <c r="C423">
-        <v>270.8477940179374</v>
+        <v>0.01779591539423109</v>
       </c>
       <c r="D423">
-        <v>0.0534674978091645</v>
+        <v>0.009787753466827099</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.01779591539423109</v>
+        <v>0.59375</v>
       </c>
       <c r="C424">
-        <v>271.4415440179374</v>
+        <v>-0.007831725169968884</v>
       </c>
       <c r="D424">
-        <v>0.05432002369749951</v>
+        <v>-0.005324027100432556</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.007831725169968884</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C425">
-        <v>272.299498563392</v>
+        <v>-0.002201248262355904</v>
       </c>
       <c r="D425">
-        <v>0.04952077699988887</v>
+        <v>-0.001611335324211935</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.002201248262355904</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C426">
-        <v>273.1574531088465</v>
+        <v>-0.01006719911772347</v>
       </c>
       <c r="D426">
-        <v>0.05420590645265888</v>
+        <v>-0.007369288522186822</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.01006719911772347</v>
+        <v>0.59375</v>
       </c>
       <c r="C427">
-        <v>273.7512031088465</v>
+        <v>-0.001660737451916638</v>
       </c>
       <c r="D427">
-        <v>0.05803283347633432</v>
+        <v>-0.001128973630817873</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>-0.001660737451916638</v>
+        <v>0.59375</v>
       </c>
       <c r="C428">
-        <v>274.3449531088465</v>
+        <v>0.00116145600199502</v>
       </c>
       <c r="D428">
-        <v>0.03974395478829217</v>
+        <v>0.0007895608051075297</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.00116145600199502</v>
+        <v>0.59375</v>
       </c>
       <c r="C429">
-        <v>274.9387031088465</v>
+        <v>0.002709316443270993</v>
       </c>
       <c r="D429">
-        <v>0.04693383695639531</v>
+        <v>0.001841800351081474</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.002709316443270993</v>
+        <v>0.59375</v>
       </c>
       <c r="C430">
-        <v>275.5324531088465</v>
+        <v>0.0121085482273422</v>
       </c>
       <c r="D430">
-        <v>0.06162413391445885</v>
+        <v>0.008231422516773603</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.0121085482273422</v>
+        <v>0.59375</v>
       </c>
       <c r="C431">
-        <v>276.1262031088465</v>
+        <v>-0.004852566446314377</v>
       </c>
       <c r="D431">
-        <v>0.0654969407623459</v>
+        <v>-0.003298787266679595</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.004852566446314377</v>
+        <v>0.59375</v>
       </c>
       <c r="C432">
-        <v>276.7199531088465</v>
+        <v>0.004280548738076817</v>
       </c>
       <c r="D432">
-        <v>0.0639185684320456</v>
+        <v>0.002909928143754551</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.004280548738076817</v>
+        <v>0.59375</v>
       </c>
       <c r="C433">
-        <v>277.3137031088465</v>
+        <v>0.002392313842817906</v>
       </c>
       <c r="D433">
-        <v>0.06350705371603511</v>
+        <v>0.001626301160406154</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.002392313842817906</v>
+        <v>0.59375</v>
       </c>
       <c r="C434">
-        <v>277.9074531088465</v>
+        <v>-0.009362565056862948</v>
       </c>
       <c r="D434">
-        <v>0.0707854049790798</v>
+        <v>-0.006364696029355082</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.009362565056862948</v>
+        <v>0.59375</v>
       </c>
       <c r="C435">
-        <v>278.5012031088465</v>
+        <v>0.002302082258726301</v>
       </c>
       <c r="D435">
-        <v>0.06464748490807286</v>
+        <v>0.001564961495314131</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.002302082258726301</v>
+        <v>0.59375</v>
       </c>
       <c r="C436">
-        <v>279.0949531088465</v>
+        <v>-0.01290357845677015</v>
       </c>
       <c r="D436">
-        <v>0.06672731124535623</v>
+        <v>-0.008771886130508192</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.01290357845677015</v>
+        <v>0.59375</v>
       </c>
       <c r="C437">
-        <v>279.6887031088465</v>
+        <v>0.01365195144870679</v>
       </c>
       <c r="D437">
-        <v>0.0586624536077932</v>
+        <v>0.009280632033081571</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01365195144870679</v>
+        <v>0.59375</v>
       </c>
       <c r="C438">
-        <v>280.2824531088465</v>
+        <v>-0.006164008421538192</v>
       </c>
       <c r="D438">
-        <v>0.06092280520143895</v>
+        <v>-0.004190308925727308</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-0.006164008421538192</v>
+        <v>0.59375</v>
       </c>
       <c r="C439">
-        <v>280.8762031088465</v>
+        <v>0.005856708715062275</v>
       </c>
       <c r="D439">
-        <v>0.06542198968541219</v>
+        <v>0.003981405787564807</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.005856708715062275</v>
+        <v>0.59375</v>
       </c>
       <c r="C440">
-        <v>281.4699531088465</v>
+        <v>0.000253863062283699</v>
       </c>
       <c r="D440">
-        <v>0.05963340458648853</v>
+        <v>0.0001725767687277746</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.000253863062283699</v>
+        <v>0.59375</v>
       </c>
       <c r="C441">
-        <v>282.0637031088465</v>
+        <v>-0.005801467304292984</v>
       </c>
       <c r="D441">
-        <v>0.05612037588305273</v>
+        <v>-0.003943852533126104</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.005801467304292984</v>
+        <v>0.59375</v>
       </c>
       <c r="C442">
-        <v>282.6574531088465</v>
+        <v>-0.005402905913925338</v>
       </c>
       <c r="D442">
-        <v>0.05122797940607954</v>
+        <v>-0.003672909465353482</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.005402905913925338</v>
+        <v>0.59375</v>
       </c>
       <c r="C443">
-        <v>283.2512031088465</v>
+        <v>0.004556000763726864</v>
       </c>
       <c r="D443">
-        <v>0.04617272121397597</v>
+        <v>0.003097181145820215</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.004556000763726864</v>
+        <v>0.59375</v>
       </c>
       <c r="C444">
-        <v>283.8449531088465</v>
+        <v>0.0007125236408915825</v>
       </c>
       <c r="D444">
-        <v>0.03323089731204162</v>
+        <v>0.0004843754206738502</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.0007125236408915825</v>
+        <v>0.59375</v>
       </c>
       <c r="C445">
-        <v>284.4387031088465</v>
+        <v>0.001356424083718721</v>
       </c>
       <c r="D445">
-        <v>0.04262968988005487</v>
+        <v>0.0009221006131688049</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.001356424083718721</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C446">
-        <v>285.2966576543011</v>
+        <v>-0.00677357002387069</v>
       </c>
       <c r="D446">
-        <v>0.03095941464097053</v>
+        <v>-0.004958319712109436</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.00677357002387069</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C447">
-        <v>286.1546121997557</v>
+        <v>0.006612507007617729</v>
       </c>
       <c r="D447">
-        <v>0.03625799540093957</v>
+        <v>0.004840420004043452</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.006612507007617729</v>
+        <v>0.59375</v>
       </c>
       <c r="C448">
-        <v>286.7483621997557</v>
+        <v>0.006088889560509791</v>
       </c>
       <c r="D448">
-        <v>0.04801185984883895</v>
+        <v>0.004139242929003827</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.006088889560509791</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C449">
-        <v>287.6063167452102</v>
+        <v>-0.02581259273735714</v>
       </c>
       <c r="D449">
-        <v>0.04831016356766833</v>
+        <v>-0.01889507112781774</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.02581259273735714</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C450">
-        <v>288.4642712906648</v>
+        <v>0.01014766970684633</v>
       </c>
       <c r="D450">
-        <v>0.05518676293157645</v>
+        <v>0.007428193782911497</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.01014766970684633</v>
+        <v>0.59375</v>
       </c>
       <c r="C451">
-        <v>289.0580212906648</v>
+        <v>0.02337321700554273</v>
       </c>
       <c r="D451">
-        <v>0.05893700801462042</v>
+        <v>0.01588917359344659</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.02337321700554273</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C452">
-        <v>289.9159758361193</v>
+        <v>0.005466009568991126</v>
       </c>
       <c r="D452">
-        <v>0.06465093353809545</v>
+        <v>0.004001172630827872</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.005466009568991126</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C453">
-        <v>290.7739303815739</v>
+        <v>-0.002227686171738519</v>
       </c>
       <c r="D453">
-        <v>0.06615259074537594</v>
+        <v>-0.001630688133258984</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>-0.002227686171738519</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C454">
-        <v>291.6318849270285</v>
+        <v>-0.0005808044304407289</v>
       </c>
       <c r="D454">
-        <v>0.06499631665310454</v>
+        <v>-0.0004251545412811896</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.0005808044304407289</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C455">
-        <v>292.489839472483</v>
+        <v>0.01027253338802225</v>
       </c>
       <c r="D455">
-        <v>0.06370094285715282</v>
+        <v>0.007519595222554007</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.01027253338802225</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C456">
-        <v>293.3477940179376</v>
+        <v>-0.008662949421330168</v>
       </c>
       <c r="D456">
-        <v>0.06791996293947507</v>
+        <v>-0.006341363967511323</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>-0.008662949421330168</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C457">
-        <v>294.2057485633921</v>
+        <v>0.00293542929145385</v>
       </c>
       <c r="D457">
-        <v>0.06762072165974223</v>
+        <v>0.002148763040468557</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.00293542929145385</v>
+        <v>0.59375</v>
       </c>
       <c r="C458">
-        <v>294.7994985633921</v>
+        <v>-0.01283171253921456</v>
       </c>
       <c r="D458">
-        <v>0.06543329532831835</v>
+        <v>-0.00872303149320164</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.01283171253921456</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C459">
-        <v>295.6574531088467</v>
+        <v>0.003190219374584302</v>
       </c>
       <c r="D459">
-        <v>0.0622980810298799</v>
+        <v>0.002335271881033226</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.003190219374584302</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C460">
-        <v>296.5154076543013</v>
+        <v>0.006350067640339851</v>
       </c>
       <c r="D460">
-        <v>0.07238390598434125</v>
+        <v>0.00464831181243671</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.006350067640339851</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C461">
-        <v>297.3733621997558</v>
+        <v>-0.008169904357326452</v>
       </c>
       <c r="D461">
-        <v>0.07429478458063211</v>
+        <v>-0.005980450143458036</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.008169904357326452</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C462">
-        <v>298.2313167452104</v>
+        <v>-0.004958225200308419</v>
       </c>
       <c r="D462">
-        <v>0.07607691582309795</v>
+        <v>-0.003629469491144116</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.004958225200308419</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C463">
-        <v>299.089271290665</v>
+        <v>-0.006905039938416735</v>
       </c>
       <c r="D463">
-        <v>0.08964223069165092</v>
+        <v>-0.005054556979391792</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>-0.006905039938416735</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C464">
-        <v>299.1749855763792</v>
+        <v>-0.009163836141906856</v>
       </c>
       <c r="D464">
-        <v>0.07566426534121343</v>
+        <v>-0.00521673288034956</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.009163836141906856</v>
+        <v>0.59375</v>
       </c>
       <c r="C465">
-        <v>299.7687355763792</v>
+        <v>-0.02059128276106037</v>
       </c>
       <c r="D465">
-        <v>0.06839907073159684</v>
+        <v>-0.0139980074725976</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.02059128276106037</v>
+        <v>0.59375</v>
       </c>
       <c r="C466">
-        <v>300.3624855763792</v>
+        <v>0.01495408968990741</v>
       </c>
       <c r="D466">
-        <v>0.08598143111992984</v>
+        <v>0.01016582898958933</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.01495408968990741</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C467">
-        <v>300.4481998620935</v>
+        <v>-0.02115509949402217</v>
       </c>
       <c r="D467">
-        <v>0.08409859461721918</v>
+        <v>-0.01204304631908962</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.02115509949402217</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C468">
-        <v>300.5339141478078</v>
+        <v>0.009604915124782565</v>
       </c>
       <c r="D468">
-        <v>0.08461506213179498</v>
+        <v>0.005467827639920419</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.009604915124782565</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C469">
-        <v>300.6196284335221</v>
+        <v>0.02130662445747689</v>
       </c>
       <c r="D469">
-        <v>0.07314648234764821</v>
+        <v>0.0121293055283124</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.02130662445747689</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C470">
-        <v>300.7053427192364</v>
+        <v>0.0005407451599888091</v>
       </c>
       <c r="D470">
-        <v>0.08989400378413258</v>
+        <v>0.0003078321144463974</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.0005407451599888091</v>
+        <v>0.59375</v>
       </c>
       <c r="C471">
-        <v>301.2990927192364</v>
+        <v>0.01094111641525242</v>
       </c>
       <c r="D471">
-        <v>0.09729913867382443</v>
+        <v>0.007437799340451422</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.01094111641525242</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C472">
-        <v>302.157047264691</v>
+        <v>0.00529302810987442</v>
       </c>
       <c r="D472">
-        <v>0.09455360360617274</v>
+        <v>0.003874548505655296</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.00529302810987442</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C473">
-        <v>302.7710823524102</v>
+        <v>0.009014734713212569</v>
       </c>
       <c r="D473">
-        <v>0.1047245302605807</v>
+        <v>0.006165849919116113</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.009014734713212569</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C474">
-        <v>303.6290368978648</v>
+        <v>0.002119411834033968</v>
       </c>
       <c r="D474">
-        <v>0.1053053609873905</v>
+        <v>0.001551430255793463</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.002119411834033968</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C475">
-        <v>304.4869914433194</v>
+        <v>-0.00163194434965952</v>
       </c>
       <c r="D475">
-        <v>0.1147167941915526</v>
+        <v>-0.001194599274749726</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.00163194434965952</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C476">
-        <v>305.1010265310387</v>
+        <v>-0.0020436827671233</v>
       </c>
       <c r="D476">
-        <v>0.1205091764785763</v>
+        <v>-0.001397827182412513</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.0020436827671233</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C477">
-        <v>305.7150616187579</v>
+        <v>0.006656255254919863</v>
       </c>
       <c r="D477">
-        <v>0.1102669703603398</v>
+        <v>0.004552709783573647</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.006656255254919863</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C478">
-        <v>306.3290967064772</v>
+        <v>-0.0004721063900730016</v>
       </c>
       <c r="D478">
-        <v>0.1181806262792339</v>
+        <v>-0.0003229087976132411</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.0004721063900730016</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C479">
-        <v>307.1870512519318</v>
+        <v>-0.003087293977893424</v>
       </c>
       <c r="D479">
-        <v>0.1178177185702341</v>
+        <v>-0.002259929480867495</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-0.003087293977893424</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C480">
-        <v>307.8010863396511</v>
+        <v>-0.004946358690427033</v>
       </c>
       <c r="D480">
-        <v>0.1126303373933558</v>
+        <v>-0.003383183898533171</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.004946358690427033</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C481">
-        <v>308.4151214273704</v>
+        <v>0.0159121843564165</v>
       </c>
       <c r="D481">
-        <v>0.1119247691814173</v>
+        <v>0.01088353054729076</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.0159121843564165</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C482">
-        <v>309.0291565150897</v>
+        <v>0.003014751162567109</v>
       </c>
       <c r="D482">
-        <v>0.09932471685226921</v>
+        <v>0.002062013337411374</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.003014751162567109</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="C483">
-        <v>309.6431916028089</v>
+        <v>0.00281162929214851</v>
       </c>
       <c r="D483">
-        <v>0.1044779733016475</v>
+        <v>0.001923083129464644</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.00281162929214851</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C484">
-        <v>310.5011461482635</v>
+        <v>0.01914584015940335</v>
       </c>
       <c r="D484">
-        <v>0.1154716200233699</v>
+        <v>0.01401494283409188</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.01914584015940335</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C485">
-        <v>311.3591006937181</v>
+        <v>-0.01972824758926528</v>
       </c>
       <c r="D485">
-        <v>0.1278754406101642</v>
+        <v>-0.01444127078667621</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.01972824758926528</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C486">
-        <v>312.2170552391726</v>
+        <v>-0.01025396432523173</v>
       </c>
       <c r="D486">
-        <v>0.1279382113622977</v>
+        <v>-0.007506002486412628</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.01025396432523173</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C487">
-        <v>313.0750097846272</v>
+        <v>0.0248154255822266</v>
       </c>
       <c r="D487">
-        <v>0.1307574400422096</v>
+        <v>0.01816513498718174</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.0248154255822266</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C488">
-        <v>313.9329643300817</v>
+        <v>-0.002657401400298909</v>
       </c>
       <c r="D488">
-        <v>0.1283057625483524</v>
+        <v>-0.001945243896446775</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.002657401400298909</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C489">
-        <v>314.7909188755363</v>
+        <v>0.0007289329129038791</v>
       </c>
       <c r="D489">
-        <v>0.1311190109068869</v>
+        <v>0.0005335860437139629</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.0007289329129038791</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C490">
-        <v>315.6488734209909</v>
+        <v>-0.01618654616795201</v>
       </c>
       <c r="D490">
-        <v>0.1405043976797904</v>
+        <v>-0.01184871059909162</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.01618654616795201</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C491">
-        <v>316.5068279664454</v>
+        <v>0.02363714897856362</v>
       </c>
       <c r="D491">
-        <v>0.1386256194366743</v>
+        <v>0.01730262495337817</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.02363714897856362</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C492">
-        <v>317.3647825119</v>
+        <v>0.01045147350656261</v>
       </c>
       <c r="D492">
-        <v>0.1354775849449588</v>
+        <v>0.00765058114488435</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.01045147350656261</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C493">
-        <v>318.2227370573545</v>
+        <v>-0.003874998558209164</v>
       </c>
       <c r="D493">
-        <v>0.136943918630857</v>
+        <v>-0.002836536961728313</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>-0.003874998558209164</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C494">
-        <v>319.0806916028091</v>
+        <v>0.01435506200078951</v>
       </c>
       <c r="D494">
-        <v>0.1439303812321844</v>
+        <v>0.01050804622026988</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.01435506200078951</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C495">
-        <v>319.9386461482637</v>
+        <v>0.0008197739870343668</v>
       </c>
       <c r="D495">
-        <v>0.1463353664561584</v>
+        <v>0.0006000826012077324</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.0008197739870343668</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C496">
-        <v>320.7966006937182</v>
+        <v>0.01328312667592435</v>
       </c>
       <c r="D496">
-        <v>0.1431213383959039</v>
+        <v>0.009723379045847113</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.01328312667592435</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C497">
-        <v>321.6545552391728</v>
+        <v>0.008175263639961905</v>
       </c>
       <c r="D497">
-        <v>0.1438803641409068</v>
+        <v>0.005984373190926429</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.008175263639961905</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C498">
-        <v>322.5125097846274</v>
+        <v>-0.01445566454738234</v>
       </c>
       <c r="D498">
-        <v>0.1466094655727134</v>
+        <v>-0.01058168827137465</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.01445566454738234</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C499">
-        <v>323.3704643300819</v>
+        <v>0.01116919089367396</v>
       </c>
       <c r="D499">
-        <v>0.1480778266438749</v>
+        <v>0.008175957313684082</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.01116919089367396</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C500">
-        <v>324.2284188755365</v>
+        <v>-0.0005122013795073599</v>
       </c>
       <c r="D500">
-        <v>0.1452046255256691</v>
+        <v>-0.000374936434942135</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.0005122013795073599</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C501">
-        <v>325.086373420991</v>
+        <v>-0.007321376010861691</v>
       </c>
       <c r="D501">
-        <v>0.1374236101882932</v>
+        <v>-0.005359319069041883</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>-0.007321376010861691</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C502">
-        <v>325.9443279664456</v>
+        <v>-0.0009958262184275313</v>
       </c>
       <c r="D502">
-        <v>0.1469747661920522</v>
+        <v>-0.000728954561813634</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>-0.0009958262184275313</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C503">
-        <v>326.8022825119002</v>
+        <v>-0.0177834860621795</v>
       </c>
       <c r="D503">
-        <v>0.1436135466719584</v>
+        <v>-0.01301768626904083</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.0177834860621795</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C504">
-        <v>327.6602370573547</v>
+        <v>0.007273212987406019</v>
+      </c>
+      <c r="D504">
+        <v>0.005324063263351018</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.007273212987406019</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C505">
-        <v>328.5181916028093</v>
+        <v>0.0155162342299171</v>
+      </c>
+      <c r="D505">
+        <v>0.01135803568410469</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.0155162342299171</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C506">
-        <v>329.3761461482638</v>
+        <v>0.01750652812867681</v>
+      </c>
+      <c r="D506">
+        <v>0.01281495034451771</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.01750652812867681</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C507">
-        <v>330.3413360216816</v>
+        <v>8.418166408041827e-05</v>
+      </c>
+      <c r="D507">
+        <v>6.328303815807385e-05</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>8.418166408041827e-05</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C508">
-        <v>331.3065258950993</v>
+        <v>0.003780858977020074</v>
+      </c>
+      <c r="D508">
+        <v>0.002842237030198044</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.003780858977020074</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C509">
-        <v>332.271715768517</v>
+        <v>-0.003287937203340974</v>
+      </c>
+      <c r="D509">
+        <v>-0.002471686177427055</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.003287937203340974</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C510">
-        <v>333.1296703139716</v>
+        <v>0.00397056787277883</v>
+      </c>
+      <c r="D510">
+        <v>0.002906494637611728</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.00397056787277883</v>
+        <v>0.9651898734177216</v>
       </c>
       <c r="C511">
-        <v>334.0948601873893</v>
+        <v>0.01258671355253327</v>
+      </c>
+      <c r="D511">
+        <v>0.009461982995118648</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.01258671355253327</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C512">
-        <v>334.9528147328439</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.002651673646075992</v>
+      </c>
+      <c r="D512">
+        <v>-0.00194105112416133</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.002651673646075992</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C513">
-        <v>335.8107692782984</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>-0.004443078968582981</v>
+      </c>
+      <c r="D513">
+        <v>-0.003252377395486776</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.004443078968582981</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C514">
-        <v>336.668723823753</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.002069556854565668</v>
+      </c>
+      <c r="D514">
+        <v>0.001514935921701789</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.002069556854565668</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C515">
-        <v>337.5266783692076</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.00986056700790261</v>
+      </c>
+      <c r="D515">
+        <v>0.007218031790556541</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.00986056700790261</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C516">
-        <v>338.3846329146621</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.0033943526656115</v>
+      </c>
+      <c r="D516">
+        <v>0.002484699452790954</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.0033943526656115</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C517">
-        <v>339.2425874601167</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>-0.004536221098127236</v>
+      </c>
+      <c r="D517">
+        <v>-0.003320558348118786</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-0.004536221098127236</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C518">
-        <v>340.1005420055712</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>0.001071275214140854</v>
+      </c>
+      <c r="D518">
+        <v>0.0007841839668963107</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.001071275214140854</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C519">
-        <v>340.9584965510258</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.003851804421679539</v>
+      </c>
+      <c r="D519">
+        <v>0.002819558626233897</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.003851804421679539</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C520">
-        <v>341.8164510964804</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.002072418269473353</v>
+      </c>
+      <c r="D520">
+        <v>0.001517030505487193</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.002072418269473353</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C521">
-        <v>342.6744056419349</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.004055184113898491</v>
+      </c>
+      <c r="D521">
+        <v>-0.002968434556270526</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.004055184113898491</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C522">
-        <v>343.5323601873895</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.01098198437491593</v>
+      </c>
+      <c r="D522">
+        <v>-0.008038920305293799</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.01098198437491593</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C523">
-        <v>344.390314732844</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01348032890923978</v>
+      </c>
+      <c r="D523">
+        <v>0.009867733015360099</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01348032890923978</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="C524">
-        <v>345.2482692782986</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.004743964463483685</v>
       </c>
-      <c r="C525">
-        <v>346.1062238237532</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>346.9641783692077</v>
+      <c r="D524">
+        <v>-0.003472628529703507</v>
       </c>
     </row>
   </sheetData>
